--- a/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
+++ b/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
@@ -51,59 +51,6 @@
       </text>
     </comment>
     <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP30520 = 60
-COMP41110 = 19</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
   <si>
     <t>B0.02</t>
   </si>
@@ -390,136 +337,136 @@
     <t>Room capacity: 90</t>
   </si>
   <si>
+    <t>Monday 2nd </t>
+  </si>
+  <si>
+    <t>No. of registered students </t>
+  </si>
+  <si>
+    <t>Tuesday 3rd</t>
+  </si>
+  <si>
+    <t>Wednesday 4th </t>
+  </si>
+  <si>
+    <t>Thursday 5th</t>
+  </si>
+  <si>
+    <t>Friday 6th</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00</t>
+  </si>
+  <si>
+    <t>COMP30190</t>
+  </si>
+  <si>
+    <t>COMP30220</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>COMP40660</t>
+  </si>
+  <si>
+    <t>COMP30110</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>COMP30260</t>
+  </si>
+  <si>
+    <t>COMP30250</t>
+  </si>
+  <si>
+    <t>COMP40370</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
+  </si>
+  <si>
+    <t>COMP41690 (Practical)</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>COMP41690</t>
+  </si>
+  <si>
+    <t>COMP41690 (Lecture)</t>
+  </si>
+  <si>
+    <t>COMP47290</t>
+  </si>
+  <si>
+    <t>COMP30170</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>COMP30240</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>COMP30520 &amp; COMP41110</t>
+  </si>
+  <si>
+    <t>COMP30520</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>B0.03</t>
+  </si>
+  <si>
     <t>9 Nov - 13 Nov</t>
   </si>
   <si>
-    <t>Monday 2nd </t>
-  </si>
-  <si>
-    <t>No. of registered students </t>
-  </si>
-  <si>
-    <t>Tuesday 3rd</t>
-  </si>
-  <si>
-    <t>Wednesday 4th </t>
-  </si>
-  <si>
-    <t>Thursday 5th</t>
-  </si>
-  <si>
-    <t>Friday 6th</t>
-  </si>
-  <si>
-    <t>9:00 - 10:00</t>
-  </si>
-  <si>
-    <t>COMP30190</t>
-  </si>
-  <si>
-    <t>COMP30220</t>
-  </si>
-  <si>
-    <t>10:00 - 11:00</t>
-  </si>
-  <si>
-    <t>COMP40660</t>
-  </si>
-  <si>
-    <t>COMP30110</t>
-  </si>
-  <si>
-    <t>11:00 - 12:00</t>
-  </si>
-  <si>
-    <t>COMP30260</t>
-  </si>
-  <si>
-    <t>COMP30250</t>
-  </si>
-  <si>
-    <t>COMP40370</t>
-  </si>
-  <si>
-    <t>12:00 - 13:00</t>
-  </si>
-  <si>
-    <t>COMP41690 (Practical)</t>
-  </si>
-  <si>
-    <t>13:00 - 14:00</t>
-  </si>
-  <si>
-    <t>COMP41690</t>
-  </si>
-  <si>
-    <t>COMP41690 (Lecture)</t>
-  </si>
-  <si>
-    <t>COMP47290</t>
-  </si>
-  <si>
-    <t>COMP30170</t>
-  </si>
-  <si>
-    <t>14:00 - 15:00</t>
-  </si>
-  <si>
-    <t>COMP30240</t>
-  </si>
-  <si>
-    <t>15:00 - 16:00</t>
-  </si>
-  <si>
-    <t>COMP30520 &amp; COMP41110</t>
-  </si>
-  <si>
-    <t>COMP30520</t>
-  </si>
-  <si>
-    <t>16:00 - 17:00</t>
-  </si>
-  <si>
-    <t>17:00 - 18:00</t>
+    <t>COMP20020</t>
+  </si>
+  <si>
+    <t>COMP47300 (Lecture)</t>
+  </si>
+  <si>
+    <t>COMP30060</t>
+  </si>
+  <si>
+    <t>COMP47300 (Practical)</t>
+  </si>
+  <si>
+    <t>COMP30010</t>
+  </si>
+  <si>
+    <t>COMP10280</t>
+  </si>
+  <si>
+    <t>COMP30080</t>
+  </si>
+  <si>
+    <t>Career opportunities talks</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>COMP47300</t>
   </si>
   <si>
     <t>No class timetabled</t>
   </si>
   <si>
     <t>Unclear if class went ahead</t>
-  </si>
-  <si>
-    <t>B0.03</t>
-  </si>
-  <si>
-    <t>COMP20020</t>
-  </si>
-  <si>
-    <t>COMP47300 (Lecture)</t>
-  </si>
-  <si>
-    <t>COMP30060</t>
-  </si>
-  <si>
-    <t>COMP47300 (Practical)</t>
-  </si>
-  <si>
-    <t>COMP30010</t>
-  </si>
-  <si>
-    <t>COMP10280</t>
-  </si>
-  <si>
-    <t>COMP30080</t>
-  </si>
-  <si>
-    <t>Career opportunities talks</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>COMP47300</t>
   </si>
   <si>
     <t>B0.04</t>
@@ -663,14 +610,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -681,6 +620,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1164,7 +1111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1333,11 +1280,151 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,7 +1436,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,174 +1448,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1605,19 +1524,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1710,10 +1629,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1762,78 +1681,38 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>29</v>
@@ -1841,7 +1720,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>29</v>
@@ -1849,223 +1728,111 @@
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="15" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>45</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="16" t="n">
         <v>45</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>22</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="16" t="n">
         <v>27</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="21" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="25" t="n">
         <v>27</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="25" t="n">
         <v>60</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>18</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="25" t="n">
-        <v>27</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>60</v>
@@ -2073,183 +1840,100 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>60</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>51</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="15" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>18</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="30" t="n">
         <v>42</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>38</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="31" t="n">
         <v>42</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="30" t="n">
-        <v>42</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="31" t="n">
-        <v>42</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="16" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="20"/>
       <c r="E9" s="30"/>
       <c r="F9" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="25" t="n">
         <v>79</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="21" t="n">
         <v>60</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="37"/>
-      <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="25" t="n">
-        <v>79</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>53</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>27</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="39" t="n">
         <v>22</v>
@@ -2258,35 +1942,10 @@
       <c r="I10" s="21"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
-      <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="38" t="n">
-        <v>53</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="39" t="n">
-        <v>27</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="38"/>
@@ -2298,115 +1957,31 @@
       <c r="I11" s="40"/>
       <c r="J11" s="32"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="41"/>
-    </row>
-    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-    </row>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="18">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2459,460 +2034,460 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="M1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="50" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="M1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42"/>
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-    </row>
-    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
-      <c r="B2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="54"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="52" t="s">
+      <c r="K2" s="47"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="P2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="54"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="56" t="n">
+      <c r="I3" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="52" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="48" t="n">
         <v>53</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="61" t="n">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="62" t="n">
-        <v>45</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="56" t="n">
-        <v>53</v>
-      </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="61" t="n">
-        <v>42</v>
-      </c>
-      <c r="V3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="62" t="n">
+      <c r="V3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="52" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="52"/>
       <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>45</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="68" t="n">
+      <c r="D5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="71" t="n">
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="60" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="48" t="n">
         <v>45</v>
       </c>
-      <c r="P5" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="68" t="n">
+      <c r="P5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="71" t="n">
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="73" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="61" t="n">
         <v>73</v>
       </c>
-      <c r="H6" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="75" t="n">
+      <c r="H6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
       <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="73" t="n">
+        <v>19</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="61" t="n">
         <v>73</v>
       </c>
-      <c r="T6" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="75" t="n">
+      <c r="T6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="V6" s="70"/>
-      <c r="W6" s="71"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>45</v>
+      <c r="D7" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>43</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="14"/>
       <c r="M7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="72"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="77" t="s">
-        <v>45</v>
+      <c r="P7" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="63" t="s">
+        <v>43</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="64" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="78" t="n">
+      <c r="K8" s="70" t="n">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="64" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="84" t="n">
-        <v>65</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="55" t="s">
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="78" t="n">
-        <v>33</v>
-      </c>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="84" t="n">
+      <c r="W8" s="70" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="66"/>
+        <v>28</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
       <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="66"/>
+        <v>28</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="56"/>
       <c r="T9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="84"/>
+        <v>24</v>
+      </c>
+      <c r="U9" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="69"/>
+      <c r="W9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="89" t="n">
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="75" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="48" t="n">
         <v>35</v>
       </c>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="89" t="n">
+      <c r="P10" s="73"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="75" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="36"/>
@@ -2920,78 +2495,78 @@
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="32"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="32"/>
       <c r="W11" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
+      <c r="B13" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="B14" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -3113,611 +2688,611 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="M1" s="91" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="M1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+    </row>
+    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="84"/>
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-    </row>
-    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91"/>
-      <c r="B2" s="94" t="s">
+      <c r="C2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="D2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="97"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="94" t="s">
+      <c r="K2" s="90"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96" t="s">
+      <c r="S2" s="89"/>
+      <c r="T2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96" t="s">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="96"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="92" t="n">
         <v>79</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="99" t="n">
+      <c r="E3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="F3" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="99" t="n">
+      <c r="F3" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="92" t="n">
         <v>79</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="99" t="n">
+      <c r="I3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
       <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="99" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="92" t="n">
         <v>79</v>
       </c>
-      <c r="P3" s="100" t="s">
+      <c r="P3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="99" t="n">
+      <c r="Q3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="R3" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="99" t="n">
+      <c r="R3" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="92" t="n">
         <v>79</v>
       </c>
-      <c r="T3" s="98" t="s">
+      <c r="T3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="99" t="n">
+      <c r="U3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="V3" s="101"/>
-      <c r="W3" s="102"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="95"/>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="104" t="n">
+      <c r="C4" s="97" t="n">
         <v>49</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="99" t="n">
+      <c r="E4" s="92" t="n">
         <v>112</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="98" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="99" t="n">
+      <c r="I4" s="92" t="n">
         <v>56</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="99" t="n">
+      <c r="K4" s="92" t="n">
         <v>96</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="99" t="n">
+      <c r="Q4" s="92" t="n">
         <v>112</v>
       </c>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="98" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="99" t="n">
+      <c r="U4" s="92" t="n">
         <v>56</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="99" t="n">
+      <c r="W4" s="92" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="99" t="n">
+      <c r="E5" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="F5" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="99" t="n">
+      <c r="F5" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="92" t="n">
         <v>98</v>
       </c>
-      <c r="H5" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="99" t="n">
+      <c r="H5" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="92" t="n">
         <v>139</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="99" t="n">
+      <c r="K5" s="92" t="n">
         <v>84</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="100"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="99" t="n">
+      <c r="Q5" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="R5" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="99" t="n">
+      <c r="R5" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="92" t="n">
         <v>98</v>
       </c>
-      <c r="T5" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="99" t="n">
+      <c r="T5" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="92" t="n">
         <v>139</v>
       </c>
-      <c r="V5" s="98" t="s">
+      <c r="V5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="99" t="n">
+      <c r="W5" s="92" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="99" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="92" t="n">
         <v>98</v>
       </c>
-      <c r="D6" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="99" t="n">
+      <c r="D6" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="92" t="n">
         <v>139</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="99" t="n">
+      <c r="G6" s="92" t="n">
         <v>74</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="99" t="n">
+      <c r="I6" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
       <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="99" t="n">
+        <v>19</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="92" t="n">
         <v>98</v>
       </c>
-      <c r="P6" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="99" t="n">
+      <c r="P6" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="92" t="n">
         <v>139</v>
       </c>
-      <c r="R6" s="98" t="s">
+      <c r="R6" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="99" t="n">
+      <c r="S6" s="92" t="n">
         <v>74</v>
       </c>
-      <c r="T6" s="98" t="s">
+      <c r="T6" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="99" t="n">
+      <c r="U6" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="V6" s="101"/>
-      <c r="W6" s="102"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="95"/>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="99" t="n">
+      <c r="E7" s="92" t="n">
         <v>103</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="98" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="99" t="n">
+      <c r="I7" s="92" t="n">
         <v>113</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="99" t="n">
+      <c r="K7" s="92" t="n">
         <v>103</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="99" t="n">
+      <c r="Q7" s="92" t="n">
         <v>103</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="98" t="s">
+      <c r="R7" s="94"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="99" t="n">
+      <c r="U7" s="92" t="n">
         <v>113</v>
       </c>
-      <c r="V7" s="98" t="s">
+      <c r="V7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="99" t="n">
+      <c r="W7" s="92" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="99" t="n">
+      <c r="C8" s="92" t="n">
         <v>66</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="98" t="s">
+      <c r="E8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="99" t="n">
+      <c r="I8" s="92" t="n">
         <v>83</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="99" t="n">
+      <c r="K8" s="92" t="n">
         <v>113</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="99" t="n">
+      <c r="O8" s="92" t="n">
         <v>66</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="101"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="98" t="s">
+      <c r="Q8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="94"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="U8" s="99" t="n">
+      <c r="U8" s="92" t="n">
         <v>83</v>
       </c>
-      <c r="V8" s="98" t="s">
+      <c r="V8" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="99" t="n">
+      <c r="W8" s="92" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="99" t="n">
+      <c r="C9" s="92" t="n">
         <v>19</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="99" t="n">
+      <c r="E9" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="99" t="n">
+      <c r="G9" s="92" t="n">
         <v>84</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="99" t="n">
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="92" t="n">
         <v>38</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="99" t="n">
+      <c r="O9" s="92" t="n">
         <v>19</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="99" t="n">
+      <c r="Q9" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="99" t="n">
+      <c r="S9" s="92" t="n">
         <v>84</v>
       </c>
-      <c r="T9" s="101"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="99" t="n">
+      <c r="T9" s="94"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="92" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="99" t="n">
+      <c r="I10" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
       <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="99" t="n">
+      <c r="U10" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="V10" s="101"/>
-      <c r="W10" s="102"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="95"/>
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="102"/>
+        <v>32</v>
+      </c>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="95"/>
     </row>
     <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
+      <c r="B13" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="B14" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3778,44 +3353,44 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="F1" s="111" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="F1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="105" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="106" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>47</v>
@@ -3823,7 +3398,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>29</v>
@@ -3834,8 +3409,8 @@
       <c r="D3" s="7" t="n">
         <v>79</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>10</v>
+      <c r="F3" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>29</v>
@@ -3849,7 +3424,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>53</v>
@@ -3860,8 +3435,8 @@
       <c r="D4" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>13</v>
+      <c r="F4" s="107" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>53</v>
@@ -3875,7 +3450,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3886,8 +3461,8 @@
       <c r="D5" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>16</v>
+      <c r="F5" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>0</v>
@@ -3901,7 +3476,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>22</v>
@@ -3912,8 +3487,8 @@
       <c r="D6" s="7" t="n">
         <v>98</v>
       </c>
-      <c r="F6" s="114" t="s">
-        <v>20</v>
+      <c r="F6" s="107" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>22</v>
@@ -3927,7 +3502,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>60</v>
@@ -3935,11 +3510,11 @@
       <c r="C7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="114" t="s">
-        <v>22</v>
+      <c r="D7" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>60</v>
@@ -3953,7 +3528,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>18</v>
@@ -3964,8 +3539,8 @@
       <c r="D8" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>27</v>
+      <c r="F8" s="107" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>18</v>
@@ -3979,7 +3554,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0</v>
@@ -3990,8 +3565,8 @@
       <c r="D9" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="F9" s="114" t="s">
-        <v>29</v>
+      <c r="F9" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>0</v>
@@ -4005,7 +3580,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>53</v>
@@ -4016,8 +3591,8 @@
       <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="114" t="s">
-        <v>32</v>
+      <c r="F10" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>53</v>
@@ -4031,7 +3606,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>53</v>
@@ -4042,8 +3617,8 @@
       <c r="D11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="114" t="s">
-        <v>33</v>
+      <c r="F11" s="107" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>53</v>
@@ -4056,29 +3631,29 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="116"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="105" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="106" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>47</v>
@@ -4086,7 +3661,7 @@
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>0</v>
@@ -4097,8 +3672,8 @@
       <c r="D14" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="F14" s="114" t="s">
-        <v>10</v>
+      <c r="F14" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
@@ -4112,7 +3687,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>45</v>
@@ -4123,8 +3698,8 @@
       <c r="D15" s="7" t="n">
         <v>112</v>
       </c>
-      <c r="F15" s="114" t="s">
-        <v>13</v>
+      <c r="F15" s="107" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>45</v>
@@ -4138,7 +3713,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>18</v>
@@ -4149,8 +3724,8 @@
       <c r="D16" s="7" t="n">
         <v>107</v>
       </c>
-      <c r="F16" s="114" t="s">
-        <v>16</v>
+      <c r="F16" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>18</v>
@@ -4164,7 +3739,7 @@
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>27</v>
@@ -4175,8 +3750,8 @@
       <c r="D17" s="7" t="n">
         <v>139</v>
       </c>
-      <c r="F17" s="114" t="s">
-        <v>20</v>
+      <c r="F17" s="107" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>27</v>
@@ -4190,25 +3765,25 @@
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="115" t="s">
-        <v>45</v>
+      <c r="C18" s="108" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>103</v>
       </c>
-      <c r="F18" s="114" t="s">
-        <v>22</v>
+      <c r="F18" s="107" t="s">
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="115" t="s">
-        <v>45</v>
+      <c r="H18" s="108" t="s">
+        <v>43</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>103</v>
@@ -4216,7 +3791,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>42</v>
@@ -4227,8 +3802,8 @@
       <c r="D19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="114" t="s">
-        <v>27</v>
+      <c r="F19" s="107" t="s">
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>42</v>
@@ -4242,7 +3817,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>42</v>
@@ -4253,8 +3828,8 @@
       <c r="D20" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="F20" s="114" t="s">
-        <v>29</v>
+      <c r="F20" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>42</v>
@@ -4268,7 +3843,7 @@
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>27</v>
@@ -4279,8 +3854,8 @@
       <c r="D21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="114" t="s">
-        <v>32</v>
+      <c r="F21" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>27</v>
@@ -4294,7 +3869,7 @@
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>27</v>
@@ -4305,8 +3880,8 @@
       <c r="D22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="114" t="s">
-        <v>33</v>
+      <c r="F22" s="107" t="s">
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>27</v>
@@ -4319,29 +3894,29 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F23" s="116"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="105" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="106" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>47</v>
@@ -4349,7 +3924,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>29</v>
@@ -4360,8 +3935,8 @@
       <c r="D25" s="7" t="n">
         <v>79</v>
       </c>
-      <c r="F25" s="114" t="s">
-        <v>10</v>
+      <c r="F25" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>29</v>
@@ -4375,7 +3950,7 @@
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>53</v>
@@ -4386,8 +3961,8 @@
       <c r="D26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="114" t="s">
-        <v>13</v>
+      <c r="F26" s="107" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="n">
         <v>53</v>
@@ -4401,7 +3976,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>22</v>
@@ -4412,8 +3987,8 @@
       <c r="D27" s="7" t="n">
         <v>98</v>
       </c>
-      <c r="F27" s="114" t="s">
-        <v>16</v>
+      <c r="F27" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="G27" s="7" t="n">
         <v>22</v>
@@ -4427,7 +4002,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>60</v>
@@ -4438,8 +4013,8 @@
       <c r="D28" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="F28" s="114" t="s">
-        <v>20</v>
+      <c r="F28" s="107" t="s">
+        <v>19</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>60</v>
@@ -4453,7 +4028,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>60</v>
@@ -4464,8 +4039,8 @@
       <c r="D29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="114" t="s">
-        <v>22</v>
+      <c r="F29" s="107" t="s">
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="n">
         <v>60</v>
@@ -4479,7 +4054,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>38</v>
@@ -4490,8 +4065,8 @@
       <c r="D30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="114" t="s">
-        <v>27</v>
+      <c r="F30" s="107" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="7" t="n">
         <v>38</v>
@@ -4505,7 +4080,7 @@
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>79</v>
@@ -4516,8 +4091,8 @@
       <c r="D31" s="7" t="n">
         <v>84</v>
       </c>
-      <c r="F31" s="114" t="s">
-        <v>29</v>
+      <c r="F31" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="G31" s="7" t="n">
         <v>79</v>
@@ -4531,7 +4106,7 @@
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>22</v>
@@ -4542,8 +4117,8 @@
       <c r="D32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="114" t="s">
-        <v>32</v>
+      <c r="F32" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>22</v>
@@ -4557,7 +4132,7 @@
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>22</v>
@@ -4568,8 +4143,8 @@
       <c r="D33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="114" t="s">
-        <v>33</v>
+      <c r="F33" s="107" t="s">
+        <v>32</v>
       </c>
       <c r="G33" s="7" t="n">
         <v>22</v>
@@ -4582,29 +4157,29 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F34" s="116"/>
+      <c r="F34" s="109"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="105" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="106" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>47</v>
@@ -4612,7 +4187,7 @@
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>0</v>
@@ -4623,8 +4198,8 @@
       <c r="D36" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="F36" s="114" t="s">
-        <v>10</v>
+      <c r="F36" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>0</v>
@@ -4638,7 +4213,7 @@
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>45</v>
@@ -4649,8 +4224,8 @@
       <c r="D37" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="F37" s="114" t="s">
-        <v>13</v>
+      <c r="F37" s="107" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>45</v>
@@ -4664,7 +4239,7 @@
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>27</v>
@@ -4675,8 +4250,8 @@
       <c r="D38" s="7" t="n">
         <v>139</v>
       </c>
-      <c r="F38" s="114" t="s">
-        <v>16</v>
+      <c r="F38" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>27</v>
@@ -4690,7 +4265,7 @@
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>18</v>
@@ -4701,8 +4276,8 @@
       <c r="D39" s="7" t="n">
         <v>107</v>
       </c>
-      <c r="F39" s="114" t="s">
-        <v>20</v>
+      <c r="F39" s="107" t="s">
+        <v>19</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>18</v>
@@ -4716,25 +4291,25 @@
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="115" t="s">
-        <v>45</v>
+      <c r="C40" s="108" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="7" t="n">
         <v>113</v>
       </c>
-      <c r="F40" s="114" t="s">
-        <v>22</v>
+      <c r="F40" s="107" t="s">
+        <v>21</v>
       </c>
       <c r="G40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H40" s="115" t="s">
-        <v>45</v>
+      <c r="H40" s="108" t="s">
+        <v>43</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>113</v>
@@ -4742,7 +4317,7 @@
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>42</v>
@@ -4753,8 +4328,8 @@
       <c r="D41" s="7" t="n">
         <v>83</v>
       </c>
-      <c r="F41" s="114" t="s">
-        <v>27</v>
+      <c r="F41" s="107" t="s">
+        <v>26</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>42</v>
@@ -4768,7 +4343,7 @@
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>60</v>
@@ -4779,8 +4354,8 @@
       <c r="D42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="114" t="s">
-        <v>29</v>
+      <c r="F42" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="G42" s="7" t="n">
         <v>60</v>
@@ -4794,7 +4369,7 @@
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>0</v>
@@ -4805,8 +4380,8 @@
       <c r="D43" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="F43" s="114" t="s">
-        <v>32</v>
+      <c r="F43" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="n">
         <v>60</v>
@@ -4820,55 +4395,55 @@
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D45" s="77"/>
+      <c r="F45" s="109"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="42"/>
-      <c r="F45" s="116"/>
-    </row>
-    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="113" t="s">
+      <c r="F46" s="106" t="s">
         <v>77</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>47</v>
@@ -4876,7 +4451,7 @@
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>38</v>
@@ -4887,8 +4462,8 @@
       <c r="D47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="114" t="s">
-        <v>10</v>
+      <c r="F47" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="7" t="n">
         <v>38</v>
@@ -4902,7 +4477,7 @@
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>0</v>
@@ -4913,8 +4488,8 @@
       <c r="D48" s="7" t="n">
         <v>96</v>
       </c>
-      <c r="F48" s="114" t="s">
-        <v>13</v>
+      <c r="F48" s="107" t="s">
+        <v>12</v>
       </c>
       <c r="G48" s="7" t="n">
         <v>0</v>
@@ -4928,7 +4503,7 @@
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>29</v>
@@ -4939,8 +4514,8 @@
       <c r="D49" s="7" t="n">
         <v>84</v>
       </c>
-      <c r="F49" s="114" t="s">
-        <v>16</v>
+      <c r="F49" s="107" t="s">
+        <v>15</v>
       </c>
       <c r="G49" s="7" t="n">
         <v>29</v>
@@ -4954,7 +4529,7 @@
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>0</v>
@@ -4965,8 +4540,8 @@
       <c r="D50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="114" t="s">
-        <v>20</v>
+      <c r="F50" s="107" t="s">
+        <v>19</v>
       </c>
       <c r="G50" s="7" t="n">
         <v>29</v>
@@ -4980,7 +4555,7 @@
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>51</v>
@@ -4991,8 +4566,8 @@
       <c r="D51" s="7" t="n">
         <v>103</v>
       </c>
-      <c r="F51" s="114" t="s">
-        <v>22</v>
+      <c r="F51" s="107" t="s">
+        <v>21</v>
       </c>
       <c r="G51" s="7" t="n">
         <v>51</v>
@@ -5006,7 +4581,7 @@
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>42</v>
@@ -5017,8 +4592,8 @@
       <c r="D52" s="7" t="n">
         <v>113</v>
       </c>
-      <c r="F52" s="114" t="s">
-        <v>27</v>
+      <c r="F52" s="107" t="s">
+        <v>26</v>
       </c>
       <c r="G52" s="7" t="n">
         <v>42</v>
@@ -5032,7 +4607,7 @@
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0</v>
@@ -5043,8 +4618,8 @@
       <c r="D53" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="F53" s="114" t="s">
-        <v>29</v>
+      <c r="F53" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="G53" s="7" t="n">
         <v>0</v>
@@ -5058,7 +4633,7 @@
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>0</v>
@@ -5069,8 +4644,8 @@
       <c r="D54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="114" t="s">
-        <v>32</v>
+      <c r="F54" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="G54" s="7" t="n">
         <v>0</v>
@@ -5084,7 +4659,7 @@
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>0</v>
@@ -5095,8 +4670,8 @@
       <c r="D55" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="114" t="s">
-        <v>33</v>
+      <c r="F55" s="107" t="s">
+        <v>32</v>
       </c>
       <c r="G55" s="7" t="n">
         <v>0</v>

--- a/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
+++ b/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
@@ -51,6 +51,59 @@
       </text>
     </comment>
     <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mollie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mollie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>COMP30520 = 60
+COMP41110 = 19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="78">
   <si>
     <t>B0.02</t>
   </si>
@@ -337,6 +390,9 @@
     <t>Room capacity: 90</t>
   </si>
   <si>
+    <t>9 Nov - 13 Nov</t>
+  </si>
+  <si>
     <t>Monday 2nd </t>
   </si>
   <si>
@@ -427,12 +483,15 @@
     <t>17:00 - 18:00</t>
   </si>
   <si>
+    <t>No class timetabled</t>
+  </si>
+  <si>
+    <t>Unclear if class went ahead</t>
+  </si>
+  <si>
     <t>B0.03</t>
   </si>
   <si>
-    <t>9 Nov - 13 Nov</t>
-  </si>
-  <si>
     <t>COMP20020</t>
   </si>
   <si>
@@ -461,12 +520,6 @@
   </si>
   <si>
     <t>COMP47300</t>
-  </si>
-  <si>
-    <t>No class timetabled</t>
-  </si>
-  <si>
-    <t>Unclear if class went ahead</t>
   </si>
   <si>
     <t>B0.04</t>
@@ -610,6 +663,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -620,14 +681,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1280,6 +1333,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1420,34 +1501,6 @@
       <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1524,19 +1577,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1629,10 +1682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="L1:N4 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,38 +1734,78 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>29</v>
@@ -1720,7 +1813,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>29</v>
@@ -1728,111 +1821,223 @@
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="15" t="n">
         <v>38</v>
       </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="15" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>45</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="16" t="n">
         <v>45</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
+      <c r="M4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>22</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="16" t="n">
         <v>27</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="21" t="n">
         <v>29</v>
       </c>
+      <c r="M5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="25" t="n">
         <v>27</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="25" t="n">
         <v>60</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>18</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
+      <c r="M6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>60</v>
@@ -1840,100 +2045,183 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>60</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>51</v>
       </c>
+      <c r="M7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>18</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="30" t="n">
         <v>42</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>38</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="31" t="n">
         <v>42</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="16" t="n">
         <v>42</v>
       </c>
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="31" t="n">
+        <v>42</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="20"/>
       <c r="E9" s="30"/>
       <c r="F9" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="25" t="n">
         <v>79</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="21" t="n">
         <v>60</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="37"/>
+      <c r="M9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="25" t="n">
+        <v>79</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>53</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>27</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="39" t="n">
         <v>22</v>
@@ -1942,10 +2230,35 @@
       <c r="I10" s="21"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
+      <c r="M10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="38" t="n">
+        <v>53</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="39" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="38"/>
@@ -1957,31 +2270,118 @@
       <c r="I11" s="40"/>
       <c r="J11" s="32"/>
       <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+    </row>
+    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="46">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:W1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="N13:V13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2002,7 +2402,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="L1:N4 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2034,460 +2434,460 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="M1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="M1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42"/>
-      <c r="B2" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="46" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="O2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47" t="s">
+      <c r="P2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" s="55" t="n">
         <v>53</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="51" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" s="58" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="15" t="n">
         <v>42</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="52" t="n">
+        <v>37</v>
+      </c>
+      <c r="K3" s="59" t="n">
         <v>45</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" s="55" t="n">
         <v>53</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
       <c r="R3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="51" t="n">
+        <v>38</v>
+      </c>
+      <c r="S3" s="58" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U3" s="15" t="n">
         <v>42</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="52" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" s="59" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="52"/>
+      <c r="K4" s="59"/>
       <c r="M4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4" s="20"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="57"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="56"/>
+      <c r="U4" s="64"/>
       <c r="V4" s="20"/>
-      <c r="W4" s="52"/>
+      <c r="W4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="48" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" s="55" t="n">
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="60" t="n">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="67" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="48" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" s="55" t="n">
         <v>45</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="60" t="n">
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="61" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" s="68" t="n">
         <v>73</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
       <c r="M6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" s="20"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="61" t="n">
+        <v>43</v>
+      </c>
+      <c r="S6" s="68" t="n">
         <v>73</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="60"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="62" t="s">
-        <v>42</v>
+      <c r="D7" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="35"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>43</v>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="14"/>
       <c r="M7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="62" t="s">
-        <v>42</v>
+      <c r="P7" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R7" s="35"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="63" t="s">
-        <v>43</v>
+      <c r="S7" s="68"/>
+      <c r="T7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="64" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="56" t="n">
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="63" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="77" t="n">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="70" t="n">
-        <v>65</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="64" t="n">
+      <c r="O8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="56" t="n">
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="63" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="70" t="n">
+        <v>46</v>
+      </c>
+      <c r="U8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="77" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="I9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
       <c r="M9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="20"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="56"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="69"/>
-      <c r="W9" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="U9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="76"/>
+      <c r="W9" s="77"/>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="48" t="n">
+        <v>39</v>
+      </c>
+      <c r="C10" s="55" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="75" t="n">
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="82" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="M10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="48" t="n">
+        <v>39</v>
+      </c>
+      <c r="O10" s="55" t="n">
         <v>35</v>
       </c>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="75" t="n">
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="82" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="36"/>
@@ -2495,78 +2895,78 @@
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="75"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="82"/>
       <c r="J11" s="32"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="77"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" s="20"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="75"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="32"/>
       <c r="W11" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2656,7 +3056,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
+      <selection pane="topLeft" activeCell="W3" activeCellId="1" sqref="L1:N4 W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2709,7 +3109,7 @@
         <v>47</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="O1" s="86" t="s">
         <v>48</v>
@@ -2726,57 +3126,57 @@
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="84"/>
       <c r="B2" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="89"/>
       <c r="H2" s="90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="90"/>
       <c r="M2" s="84"/>
       <c r="N2" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" s="89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="89"/>
       <c r="R2" s="89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2" s="89"/>
       <c r="T2" s="89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U2" s="89"/>
       <c r="V2" s="89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W2" s="89"/>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="92" t="n">
         <v>79</v>
@@ -2788,7 +3188,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="92" t="n">
         <v>79</v>
@@ -2802,10 +3202,10 @@
       <c r="J3" s="94"/>
       <c r="K3" s="95"/>
       <c r="M3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="92" t="n">
         <v>79</v>
@@ -2817,7 +3217,7 @@
         <v>143</v>
       </c>
       <c r="R3" s="93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S3" s="92" t="n">
         <v>79</v>
@@ -2833,7 +3233,7 @@
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>50</v>
@@ -2862,7 +3262,7 @@
         <v>96</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4" s="98"/>
       <c r="O4" s="99"/>
@@ -2889,7 +3289,7 @@
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="96"/>
       <c r="C5" s="97"/>
@@ -2900,13 +3300,13 @@
         <v>107</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="92" t="n">
         <v>139</v>
@@ -2918,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="100"/>
       <c r="O5" s="101"/>
@@ -2929,13 +3329,13 @@
         <v>107</v>
       </c>
       <c r="R5" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="T5" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U5" s="92" t="n">
         <v>139</v>
@@ -2949,16 +3349,16 @@
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="92" t="n">
         <v>139</v>
@@ -2978,16 +3378,16 @@
       <c r="J6" s="94"/>
       <c r="K6" s="95"/>
       <c r="M6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="92" t="n">
         <v>139</v>
@@ -3009,13 +3409,13 @@
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>58</v>
@@ -3038,7 +3438,7 @@
         <v>103</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="94"/>
       <c r="O7" s="95"/>
@@ -3065,7 +3465,7 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="91" t="s">
         <v>60</v>
@@ -3094,7 +3494,7 @@
         <v>113</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="91" t="s">
         <v>60</v>
@@ -3125,7 +3525,7 @@
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>63</v>
@@ -3148,13 +3548,13 @@
       <c r="H9" s="94"/>
       <c r="I9" s="95"/>
       <c r="J9" s="91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="92" t="n">
         <v>38</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="91" t="s">
         <v>63</v>
@@ -3177,7 +3577,7 @@
       <c r="T9" s="94"/>
       <c r="U9" s="95"/>
       <c r="V9" s="91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W9" s="92" t="n">
         <v>38</v>
@@ -3185,7 +3585,7 @@
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="95"/>
@@ -3202,7 +3602,7 @@
       <c r="J10" s="94"/>
       <c r="K10" s="95"/>
       <c r="M10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="95"/>
@@ -3221,7 +3621,7 @@
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="95"/>
@@ -3233,9 +3633,9 @@
       <c r="I11" s="95"/>
       <c r="J11" s="94"/>
       <c r="K11" s="95"/>
-      <c r="L11" s="77"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="95"/>
@@ -3249,50 +3649,50 @@
       <c r="W11" s="95"/>
     </row>
     <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3340,7 +3740,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="1" sqref="L1:N4 L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3378,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>47</v>
@@ -3390,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>47</v>
@@ -3398,7 +3798,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>29</v>
@@ -3410,7 +3810,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>29</v>
@@ -3424,7 +3824,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>53</v>
@@ -3436,7 +3836,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>53</v>
@@ -3450,7 +3850,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3462,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>0</v>
@@ -3476,7 +3876,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>22</v>
@@ -3488,7 +3888,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>22</v>
@@ -3502,7 +3902,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>60</v>
@@ -3511,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>60</v>
@@ -3528,7 +3928,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>18</v>
@@ -3540,7 +3940,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>18</v>
@@ -3554,7 +3954,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0</v>
@@ -3566,7 +3966,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>0</v>
@@ -3580,7 +3980,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>53</v>
@@ -3592,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>53</v>
@@ -3606,7 +4006,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>53</v>
@@ -3618,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>53</v>
@@ -3641,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>47</v>
@@ -3653,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>47</v>
@@ -3661,7 +4061,7 @@
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>0</v>
@@ -3673,7 +4073,7 @@
         <v>143</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
@@ -3687,7 +4087,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>45</v>
@@ -3699,7 +4099,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>45</v>
@@ -3713,7 +4113,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>18</v>
@@ -3725,7 +4125,7 @@
         <v>107</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>18</v>
@@ -3739,7 +4139,7 @@
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>27</v>
@@ -3751,7 +4151,7 @@
         <v>139</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>27</v>
@@ -3765,25 +4165,25 @@
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>103</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>103</v>
@@ -3791,7 +4191,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>42</v>
@@ -3803,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>42</v>
@@ -3817,7 +4217,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>42</v>
@@ -3829,7 +4229,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>42</v>
@@ -3843,7 +4243,7 @@
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>27</v>
@@ -3855,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>27</v>
@@ -3869,7 +4269,7 @@
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>27</v>
@@ -3881,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>27</v>
@@ -3904,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>47</v>
@@ -3916,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>47</v>
@@ -3924,7 +4324,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>29</v>
@@ -3936,7 +4336,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>29</v>
@@ -3950,7 +4350,7 @@
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>53</v>
@@ -3962,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="n">
         <v>53</v>
@@ -3976,7 +4376,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>22</v>
@@ -3988,7 +4388,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="n">
         <v>22</v>
@@ -4002,7 +4402,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>60</v>
@@ -4014,7 +4414,7 @@
         <v>74</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>60</v>
@@ -4028,7 +4428,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>60</v>
@@ -4040,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="n">
         <v>60</v>
@@ -4054,7 +4454,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>38</v>
@@ -4066,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7" t="n">
         <v>38</v>
@@ -4080,7 +4480,7 @@
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>79</v>
@@ -4092,7 +4492,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="7" t="n">
         <v>79</v>
@@ -4106,7 +4506,7 @@
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>22</v>
@@ -4118,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>22</v>
@@ -4132,7 +4532,7 @@
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>22</v>
@@ -4144,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="7" t="n">
         <v>22</v>
@@ -4167,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>47</v>
@@ -4179,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>47</v>
@@ -4187,7 +4587,7 @@
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>0</v>
@@ -4199,7 +4599,7 @@
         <v>143</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>0</v>
@@ -4213,7 +4613,7 @@
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>45</v>
@@ -4225,7 +4625,7 @@
         <v>56</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>45</v>
@@ -4239,7 +4639,7 @@
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>27</v>
@@ -4251,7 +4651,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>27</v>
@@ -4265,7 +4665,7 @@
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>18</v>
@@ -4277,7 +4677,7 @@
         <v>107</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>18</v>
@@ -4291,25 +4691,25 @@
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" s="7" t="n">
         <v>113</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>113</v>
@@ -4317,7 +4717,7 @@
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>42</v>
@@ -4329,7 +4729,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>42</v>
@@ -4343,7 +4743,7 @@
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>60</v>
@@ -4355,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42" s="7" t="n">
         <v>60</v>
@@ -4369,7 +4769,7 @@
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>0</v>
@@ -4381,7 +4781,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" s="7" t="n">
         <v>60</v>
@@ -4395,7 +4795,7 @@
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>0</v>
@@ -4407,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44" s="7" t="n">
         <v>0</v>
@@ -4420,7 +4820,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="77"/>
+      <c r="D45" s="42"/>
       <c r="F45" s="109"/>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4431,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>47</v>
@@ -4443,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>47</v>
@@ -4451,7 +4851,7 @@
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>38</v>
@@ -4463,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7" t="n">
         <v>38</v>
@@ -4477,7 +4877,7 @@
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>0</v>
@@ -4489,7 +4889,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="7" t="n">
         <v>0</v>
@@ -4503,7 +4903,7 @@
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>29</v>
@@ -4515,7 +4915,7 @@
         <v>84</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" s="7" t="n">
         <v>29</v>
@@ -4529,7 +4929,7 @@
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>0</v>
@@ -4541,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50" s="7" t="n">
         <v>29</v>
@@ -4555,7 +4955,7 @@
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>51</v>
@@ -4567,7 +4967,7 @@
         <v>103</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="7" t="n">
         <v>51</v>
@@ -4581,7 +4981,7 @@
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>42</v>
@@ -4593,7 +4993,7 @@
         <v>113</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" s="7" t="n">
         <v>42</v>
@@ -4607,7 +5007,7 @@
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0</v>
@@ -4619,7 +5019,7 @@
         <v>38</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53" s="7" t="n">
         <v>0</v>
@@ -4633,7 +5033,7 @@
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>0</v>
@@ -4645,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" s="7" t="n">
         <v>0</v>
@@ -4659,7 +5059,7 @@
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>0</v>
@@ -4671,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="7" t="n">
         <v>0</v>

--- a/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
+++ b/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
@@ -1,132 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="B0.02" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="B0.03" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="B0.04" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="All" sheetId="4" state="visible" r:id="rId5"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="B0.02" sheetId="1" r:id="rId1"/>
+    <s:sheet name="B0.03" sheetId="2" r:id="rId2"/>
+    <s:sheet name="B0.04" sheetId="3" r:id="rId3"/>
+    <s:sheet name="All" sheetId="4" r:id="rId4"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0">
+    <comment authorId="0" ref="H7" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP30520 = 60
-COMP41110 = 19</t>
-        </r>
+        <t>Mollie:
+Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment authorId="0" ref="T7" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
-        </r>
+        <t>Mollie:
+Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
       </text>
     </comment>
-    <comment ref="S9" authorId="0">
+    <comment authorId="0" ref="G9" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP30520 = 60
+        <t>Mollie:
+COMP30520 = 60
 COMP41110 = 19</t>
-        </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment authorId="0" ref="S9" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
-        </r>
+        <t>Mollie:
+COMP30520 = 60
+COMP41110 = 19</t>
       </text>
     </comment>
   </commentList>
@@ -134,35 +53,15 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment authorId="0" ref="F3" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP47300 not scheduled for 15/16 academic year. Awaiting clarification from module coordinator. </t>
-        </r>
+        <t>Mollie:
+COMP47300 not scheduled for 15/16 academic year. Awaiting clarification from module coordinator. </t>
       </text>
     </comment>
   </commentList>
@@ -170,117 +69,37 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment authorId="0" ref="E3" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP41450 = 35
+        <t>Mollie:
+COMP41450 = 35
 COMP30120 = 108 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment authorId="0" ref="I3" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP41450 = 35
+        <t>Mollie:
+COMP41450 = 35
 COMP30120 = 108 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment authorId="0" ref="Q3" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP41450 = 35
+        <t>Mollie:
+COMP41450 = 35
 COMP30120 = 108 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment authorId="0" ref="U3" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP41450 = 35
+        <t>Mollie:
+COMP41450 = 35
 COMP30120 = 108 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -288,90 +107,30 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="B31" authorId="0">
+    <comment authorId="0" ref="I14" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP30520 = 60
-COMP41110 = 19</t>
-        </r>
+        <t>Mollie:
+COMP41450 = 35
+COMP30120 = 108 </t>
       </text>
     </comment>
-    <comment ref="G31" authorId="0">
+    <comment authorId="0" ref="B31" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP30520 = 60
+        <t>Mollie:
+COMP30520 = 60
 COMP41110 = 19</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment authorId="0" ref="G31" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mollie:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMP41450 = 35
-COMP30120 = 108 </t>
-        </r>
+        <t>Mollie:
+COMP30520 = 60
+COMP41110 = 19</t>
       </text>
     </comment>
   </commentList>
@@ -379,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>B0.02</t>
   </si>
@@ -393,16 +152,16 @@
     <t>9 Nov - 13 Nov</t>
   </si>
   <si>
-    <t>Monday 2nd </t>
-  </si>
-  <si>
-    <t>No. of registered students </t>
+    <t xml:space="preserve">Monday 2nd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of registered students </t>
   </si>
   <si>
     <t>Tuesday 3rd</t>
   </si>
   <si>
-    <t>Wednesday 4th </t>
+    <t xml:space="preserve">Wednesday 4th </t>
   </si>
   <si>
     <t>Thursday 5th</t>
@@ -620,74 +379,77 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
   </numFmts>
   <fonts count="9">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -730,14 +492,14 @@
     </fill>
   </fills>
   <borders count="40">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -746,7 +508,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -755,28 +517,28 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -791,7 +553,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -802,7 +564,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="dotted">
         <color rgb="FF3B3838"/>
@@ -811,7 +573,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -822,7 +584,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -831,7 +593,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -842,7 +604,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -855,7 +617,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -866,14 +628,14 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="dotted">
         <color rgb="FF3B3838"/>
@@ -882,21 +644,21 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -907,7 +669,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -916,7 +678,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -927,7 +689,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -936,7 +698,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="dotted">
         <color rgb="FF3B3838"/>
@@ -945,7 +707,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -954,7 +716,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -969,7 +731,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF3B3838"/>
@@ -978,7 +740,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -989,7 +751,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -1000,7 +762,7 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -1011,14 +773,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -1031,7 +793,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -1044,14 +806,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="dotted">
         <color rgb="FF3B3838"/>
       </left>
@@ -1064,7 +826,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1073,7 +835,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -1088,7 +850,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -1101,7 +863,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3B3838"/>
       </left>
@@ -1114,7 +876,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FF3B3838"/>
       </left>
@@ -1123,7 +885,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FF3B3838"/>
       </left>
@@ -1139,481 +901,357 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="111">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" textRotation="45" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" textRotation="45" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="7" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="7" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
+    <cellStyle builtinId="3" name="Comma" xfId="3"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1677,46 +1315,330 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="L1:N4 I17"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="C1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I17" activeCellId="1" pane="topLeft" sqref="L1:N4 I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,14 +1648,30 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,17 +1681,35 @@
       <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1763,20 +1719,30 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1786,40 +1752,48 @@
       <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="T2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="V2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="19" t="n"/>
       <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="14" t="n"/>
       <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1832,19 +1806,19 @@
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
+      <c r="P3" s="10" t="n"/>
+      <c r="Q3" s="19" t="n"/>
       <c r="R3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="S3" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="10" t="n"/>
+      <c r="U3" s="14" t="n"/>
       <c r="V3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1852,14 +1826,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1880,15 +1854,15 @@
       <c r="I4" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="17" t="n"/>
+      <c r="K4" s="18" t="n"/>
       <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="P4" s="12" t="s">
@@ -1909,15 +1883,15 @@
       <c r="U4" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V4" s="17" t="n"/>
+      <c r="W4" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="19" t="n"/>
       <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1945,8 +1919,8 @@
       <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="17" t="n"/>
+      <c r="O5" s="19" t="n"/>
       <c r="P5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1972,14 +1946,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="25" t="n">
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -2000,15 +1974,19 @@
       <c r="I6" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="J6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>29</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="23" t="n">
+      <c r="O6" s="25" t="n">
         <v>22</v>
       </c>
       <c r="P6" s="24" t="s">
@@ -2029,21 +2007,25 @@
       <c r="U6" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="19" t="n"/>
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
@@ -2068,11 +2050,11 @@
       <c r="N7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="P7" s="10" t="n"/>
+      <c r="Q7" s="19" t="n"/>
       <c r="R7" s="12" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2160,14 +2142,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="32" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="30" t="n">
+        <v>42</v>
+      </c>
       <c r="F9" s="34" t="s">
         <v>30</v>
       </c>
@@ -2180,15 +2166,19 @@
       <c r="I9" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="36" t="n"/>
+      <c r="K9" s="37" t="n"/>
       <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="30"/>
+      <c r="N9" s="32" t="n"/>
+      <c r="O9" s="33" t="n"/>
+      <c r="P9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="30" t="n">
+        <v>42</v>
+      </c>
       <c r="R9" s="34" t="s">
         <v>30</v>
       </c>
@@ -2201,17 +2191,17 @@
       <c r="U9" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-    </row>
-    <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V9" s="36" t="n"/>
+      <c r="W9" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="39" t="n">
         <v>53</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -2226,17 +2216,21 @@
       <c r="G10" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="H10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" s="36" t="n"/>
+      <c r="K10" s="37" t="n"/>
       <c r="M10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="38" t="n">
+      <c r="O10" s="39" t="n">
         <v>53</v>
       </c>
       <c r="P10" s="35" t="s">
@@ -2251,189 +2245,166 @@
       <c r="S10" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-    </row>
-    <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="36" t="n"/>
+      <c r="W10" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="39" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="40" t="n"/>
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="41" t="n"/>
+      <c r="L11" s="47" t="n"/>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="41"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="39" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="T11" s="10" t="n"/>
+      <c r="U11" s="40" t="n"/>
+      <c r="V11" s="32" t="n"/>
+      <c r="W11" s="41" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="110" spans="1:23"/>
+    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
       <c r="B13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="15" s="110" spans="1:23"/>
+    <row customHeight="1" ht="13.8" r="17" s="110" spans="1:23"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="L1:N4 H5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H5" activeCellId="1" pane="topLeft" sqref="L1:N4 H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
       <c r="A1" s="49" t="s">
         <v>36</v>
       </c>
@@ -2443,14 +2414,30 @@
       <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="D1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="M1" s="49" t="s">
         <v>36</v>
       </c>
@@ -2460,17 +2447,35 @@
       <c r="O1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-    </row>
-    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
+      <c r="P1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
+      <c r="A2" s="49" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
@@ -2480,20 +2485,30 @@
       <c r="D2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="54" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="54" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54"/>
+      <c r="I2" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="M2" s="49"/>
+      <c r="K2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>36</v>
+      </c>
       <c r="N2" s="52" t="s">
         <v>4</v>
       </c>
@@ -2503,32 +2518,40 @@
       <c r="P2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="54"/>
+      <c r="Q2" s="54" t="s">
+        <v>6</v>
+      </c>
       <c r="R2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="54"/>
+      <c r="S2" s="54" t="s">
+        <v>7</v>
+      </c>
       <c r="T2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="54"/>
+      <c r="U2" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="V2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="54"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W2" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="55" t="n">
+      <c r="C3" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="56" t="n"/>
+      <c r="E3" s="57" t="n"/>
       <c r="F3" s="27" t="s">
         <v>38</v>
       </c>
@@ -2553,11 +2576,11 @@
       <c r="N3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="55" t="n">
+      <c r="O3" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="P3" s="56" t="n"/>
+      <c r="Q3" s="57" t="n"/>
       <c r="R3" s="27" t="s">
         <v>38</v>
       </c>
@@ -2577,50 +2600,66 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="68" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" s="60" t="n"/>
+      <c r="E4" s="61" t="n"/>
       <c r="F4" s="62" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="59"/>
+      <c r="H4" s="56" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="59" t="n">
+        <v>45</v>
+      </c>
       <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="N4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="68" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" s="60" t="n"/>
+      <c r="Q4" s="61" t="n"/>
       <c r="R4" s="62" t="s">
         <v>40</v>
       </c>
       <c r="S4" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="59"/>
-    </row>
-    <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T4" s="56" t="n"/>
+      <c r="U4" s="64" t="n"/>
+      <c r="V4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="59" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="55" t="n">
+      <c r="C5" s="68" t="n">
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -2629,10 +2668,14 @@
       <c r="E5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="65"/>
+      <c r="F5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="60" t="n"/>
+      <c r="I5" s="65" t="n"/>
       <c r="J5" s="66" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2688,7 @@
       <c r="N5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="55" t="n">
+      <c r="O5" s="68" t="n">
         <v>45</v>
       </c>
       <c r="P5" s="12" t="s">
@@ -2654,10 +2697,14 @@
       <c r="Q5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="65"/>
+      <c r="R5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="60" t="n"/>
+      <c r="U5" s="65" t="n"/>
       <c r="V5" s="66" t="s">
         <v>25</v>
       </c>
@@ -2665,14 +2712,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="68" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" s="60" t="n"/>
+      <c r="E6" s="61" t="n"/>
       <c r="F6" s="35" t="s">
         <v>43</v>
       </c>
@@ -2685,15 +2736,23 @@
       <c r="I6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
+      <c r="J6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="67" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="N6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="68" t="n">
+        <v>45</v>
+      </c>
+      <c r="P6" s="60" t="n"/>
+      <c r="Q6" s="61" t="n"/>
       <c r="R6" s="35" t="s">
         <v>43</v>
       </c>
@@ -2706,54 +2765,66 @@
       <c r="U6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="V6" s="66"/>
-      <c r="W6" s="67"/>
-    </row>
-    <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="19" t="n"/>
       <c r="D7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="68" t="n">
+        <v>73</v>
+      </c>
       <c r="H7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="17" t="n"/>
+      <c r="K7" s="14" t="n"/>
       <c r="M7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="17" t="n"/>
+      <c r="O7" s="19" t="n"/>
       <c r="P7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="68"/>
+      <c r="R7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="68" t="n">
+        <v>73</v>
+      </c>
       <c r="T7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="U7" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V7" s="17" t="n"/>
+      <c r="W7" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2763,8 +2834,8 @@
       <c r="C8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="72" t="n"/>
+      <c r="E8" s="73" t="n"/>
       <c r="F8" s="74" t="s">
         <v>46</v>
       </c>
@@ -2792,8 +2863,8 @@
       <c r="O8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="P8" s="72" t="n"/>
+      <c r="Q8" s="73" t="n"/>
       <c r="R8" s="74" t="s">
         <v>46</v>
       </c>
@@ -2813,281 +2884,250 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="63"/>
+      <c r="B9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="79" t="n"/>
+      <c r="F9" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="63" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
+      <c r="J9" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="77" t="n">
+        <v>65</v>
+      </c>
       <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="63"/>
+      <c r="N9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="71" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" s="78" t="n"/>
+      <c r="Q9" s="79" t="n"/>
+      <c r="R9" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="63" t="n">
+        <v>0</v>
+      </c>
       <c r="T9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="U9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-    </row>
-    <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V9" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="77" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="55" t="n">
+      <c r="C10" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="81" t="n"/>
+      <c r="F10" s="80" t="n"/>
+      <c r="G10" s="81" t="n"/>
       <c r="H10" s="74" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="36" t="n"/>
+      <c r="K10" s="37" t="n"/>
       <c r="M10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="55" t="n">
+      <c r="O10" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="81" t="n"/>
+      <c r="R10" s="80" t="n"/>
+      <c r="S10" s="81" t="n"/>
       <c r="T10" s="74" t="s">
         <v>25</v>
       </c>
       <c r="U10" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-    </row>
-    <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V10" s="36" t="n"/>
+      <c r="W10" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="68" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="83" t="n"/>
+      <c r="E11" s="79" t="n"/>
+      <c r="F11" s="83" t="n"/>
+      <c r="G11" s="79" t="n"/>
+      <c r="H11" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="41" t="n"/>
+      <c r="L11" s="47" t="n"/>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="41"/>
-    </row>
-    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="68" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="83" t="n"/>
+      <c r="Q11" s="79" t="n"/>
+      <c r="R11" s="83" t="n"/>
+      <c r="S11" s="79" t="n"/>
+      <c r="T11" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32" t="n"/>
+      <c r="W11" s="41" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
       <c r="B13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W3" activeCellId="1" sqref="L1:N4 W3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="W3" activeCellId="1" pane="topLeft" sqref="L1:N4 W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.280612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
       <c r="A1" s="84" t="s">
         <v>47</v>
       </c>
@@ -3097,14 +3137,30 @@
       <c r="C1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>48</v>
+      </c>
       <c r="M1" s="84" t="s">
         <v>47</v>
       </c>
@@ -3114,17 +3170,35 @@
       <c r="O1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-    </row>
-    <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="84"/>
+      <c r="P1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
+      <c r="A2" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="87" t="s">
         <v>4</v>
       </c>
@@ -3134,20 +3208,30 @@
       <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="89" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="89" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="90"/>
+      <c r="I2" s="90" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="M2" s="84"/>
+      <c r="K2" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="N2" s="87" t="s">
         <v>4</v>
       </c>
@@ -3157,21 +3241,29 @@
       <c r="P2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="89"/>
+      <c r="Q2" s="89" t="s">
+        <v>6</v>
+      </c>
       <c r="R2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="89"/>
+      <c r="S2" s="89" t="s">
+        <v>7</v>
+      </c>
       <c r="T2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="89"/>
+      <c r="U2" s="89" t="s">
+        <v>8</v>
+      </c>
       <c r="V2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="89"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W2" s="89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3199,8 +3291,8 @@
       <c r="I3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="J3" s="94" t="n"/>
+      <c r="K3" s="95" t="n"/>
       <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3228,10 +3320,10 @@
       <c r="U3" s="92" t="n">
         <v>143</v>
       </c>
-      <c r="V3" s="94"/>
-      <c r="W3" s="95"/>
-    </row>
-    <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V3" s="94" t="n"/>
+      <c r="W3" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3247,8 +3339,8 @@
       <c r="E4" s="92" t="n">
         <v>112</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
+      <c r="F4" s="94" t="n"/>
+      <c r="G4" s="95" t="n"/>
       <c r="H4" s="91" t="s">
         <v>52</v>
       </c>
@@ -3264,16 +3356,16 @@
       <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
+      <c r="N4" s="98" t="n"/>
+      <c r="O4" s="99" t="n"/>
       <c r="P4" s="91" t="s">
         <v>51</v>
       </c>
       <c r="Q4" s="92" t="n">
         <v>112</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
+      <c r="R4" s="94" t="n"/>
+      <c r="S4" s="95" t="n"/>
       <c r="T4" s="91" t="s">
         <v>52</v>
       </c>
@@ -3287,12 +3379,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="97" t="n">
+        <v>49</v>
+      </c>
       <c r="D5" s="91" t="s">
         <v>54</v>
       </c>
@@ -3320,8 +3416,8 @@
       <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="100"/>
-      <c r="O5" s="101"/>
+      <c r="N5" s="100" t="n"/>
+      <c r="O5" s="101" t="n"/>
       <c r="P5" s="91" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -3375,8 +3471,8 @@
       <c r="I6" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="95"/>
+      <c r="J6" s="94" t="n"/>
+      <c r="K6" s="95" t="n"/>
       <c r="M6" s="7" t="s">
         <v>20</v>
       </c>
@@ -3404,10 +3500,10 @@
       <c r="U6" s="92" t="n">
         <v>107</v>
       </c>
-      <c r="V6" s="94"/>
-      <c r="W6" s="95"/>
-    </row>
-    <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V6" s="94" t="n"/>
+      <c r="W6" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -3423,8 +3519,8 @@
       <c r="E7" s="92" t="n">
         <v>103</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
+      <c r="F7" s="94" t="n"/>
+      <c r="G7" s="95" t="n"/>
       <c r="H7" s="91" t="s">
         <v>59</v>
       </c>
@@ -3440,16 +3536,16 @@
       <c r="M7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="95"/>
+      <c r="N7" s="94" t="n"/>
+      <c r="O7" s="95" t="n"/>
       <c r="P7" s="91" t="s">
         <v>58</v>
       </c>
       <c r="Q7" s="92" t="n">
         <v>103</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
+      <c r="R7" s="94" t="n"/>
+      <c r="S7" s="95" t="n"/>
       <c r="T7" s="91" t="s">
         <v>59</v>
       </c>
@@ -3463,7 +3559,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3479,8 +3575,8 @@
       <c r="E8" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
+      <c r="F8" s="94" t="n"/>
+      <c r="G8" s="95" t="n"/>
       <c r="H8" s="91" t="s">
         <v>62</v>
       </c>
@@ -3508,8 +3604,8 @@
       <c r="Q8" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="95"/>
+      <c r="R8" s="94" t="n"/>
+      <c r="S8" s="95" t="n"/>
       <c r="T8" s="91" t="s">
         <v>62</v>
       </c>
@@ -3523,7 +3619,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -3545,8 +3641,8 @@
       <c r="G9" s="92" t="n">
         <v>84</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
+      <c r="H9" s="94" t="n"/>
+      <c r="I9" s="95" t="n"/>
       <c r="J9" s="91" t="s">
         <v>12</v>
       </c>
@@ -3574,8 +3670,8 @@
       <c r="S9" s="92" t="n">
         <v>84</v>
       </c>
-      <c r="T9" s="94"/>
-      <c r="U9" s="95"/>
+      <c r="T9" s="94" t="n"/>
+      <c r="U9" s="95" t="n"/>
       <c r="V9" s="91" t="s">
         <v>12</v>
       </c>
@@ -3583,194 +3679,165 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="94" t="n"/>
+      <c r="C10" s="95" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="95" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="95" t="n"/>
       <c r="H10" s="91" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
+      <c r="J10" s="94" t="n"/>
+      <c r="K10" s="95" t="n"/>
       <c r="M10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="95"/>
+      <c r="N10" s="94" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="94" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="94" t="n"/>
+      <c r="S10" s="95" t="n"/>
       <c r="T10" s="91" t="s">
         <v>64</v>
       </c>
       <c r="U10" s="92" t="n">
         <v>108</v>
       </c>
-      <c r="V10" s="94"/>
-      <c r="W10" s="95"/>
-    </row>
-    <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V10" s="94" t="n"/>
+      <c r="W10" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="42"/>
+      <c r="B11" s="94" t="n"/>
+      <c r="C11" s="95" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="95" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="95" t="n"/>
+      <c r="H11" s="94" t="n"/>
+      <c r="I11" s="95" t="n"/>
+      <c r="J11" s="94" t="n"/>
+      <c r="K11" s="95" t="n"/>
+      <c r="L11" s="47" t="n"/>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="95"/>
-    </row>
-    <row r="13" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N11" s="94" t="n"/>
+      <c r="O11" s="95" t="n"/>
+      <c r="P11" s="94" t="n"/>
+      <c r="Q11" s="95" t="n"/>
+      <c r="R11" s="94" t="n"/>
+      <c r="S11" s="95" t="n"/>
+      <c r="T11" s="94" t="n"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="94" t="n"/>
+      <c r="W11" s="95" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
       <c r="B13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="1" sqref="L1:N4 L22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="L22" activeCellId="1" pane="topLeft" sqref="L1:N4 L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="9.70918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.72959183673469"/>
+    <col customWidth="1" max="1" min="1" style="47" width="14.5714285714286"/>
+    <col customWidth="1" max="5" min="2" style="47" width="9.70918367346939"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.5714285714286"/>
+    <col customWidth="1" max="9" min="7" style="47" width="8.29081632653061"/>
+    <col customWidth="1" max="1025" min="10" style="47" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="1" s="110" spans="1:9">
       <c r="A1" s="103" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="103" t="n"/>
+      <c r="D1" s="103" t="n"/>
       <c r="F1" s="104" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H1" s="103" t="n"/>
+      <c r="I1" s="103" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="2" s="110" spans="1:9">
       <c r="A2" s="105" t="s">
         <v>68</v>
       </c>
@@ -3796,7 +3863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="3" s="110" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3822,7 +3889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="4" s="110" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3848,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="5" s="110" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -3874,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="6" s="110" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3967,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="7" s="110" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -3926,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="8" s="110" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3952,7 +4019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="9" s="110" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -3978,7 +4045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="10" s="110" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -4004,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="11" s="110" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -4030,10 +4097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="109"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="12" s="110" spans="1:9">
+      <c r="F12" s="109" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="13" s="110" spans="1:9">
       <c r="A13" s="105" t="s">
         <v>70</v>
       </c>
@@ -4059,7 +4126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="14" s="110" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="15" s="110" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -4111,7 +4178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="16" s="110" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -4137,7 +4204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="17" s="110" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -4163,7 +4230,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="18" s="110" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -4189,7 +4256,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="19" s="110" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -4215,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="20" s="110" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -4241,7 +4308,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="21" s="110" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -4267,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="22" s="110" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
@@ -4293,10 +4360,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F23" s="109"/>
-    </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="23" s="110" spans="1:9">
+      <c r="F23" s="109" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="24" s="110" spans="1:9">
       <c r="A24" s="105" t="s">
         <v>72</v>
       </c>
@@ -4322,7 +4389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="25" s="110" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -4348,7 +4415,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="26" s="110" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="27" s="110" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -4400,7 +4467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="28" s="110" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
@@ -4426,7 +4493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="29" s="110" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -4452,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="30" s="110" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
@@ -4478,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="31" s="110" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -4504,7 +4571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="32" s="110" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
@@ -4530,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="33" s="110" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -4556,10 +4623,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F34" s="109"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="34" s="110" spans="1:9">
+      <c r="F34" s="109" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="35" s="110" spans="1:9">
       <c r="A35" s="105" t="s">
         <v>74</v>
       </c>
@@ -4585,7 +4652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="36" s="110" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -4611,7 +4678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="37" s="110" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="38" s="110" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -4663,7 +4730,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="39" s="110" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>20</v>
       </c>
@@ -4689,7 +4756,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="40" s="110" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>22</v>
       </c>
@@ -4715,7 +4782,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="41" s="110" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
@@ -4741,7 +4808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="42" s="110" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
@@ -4767,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="43" s="110" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>32</v>
       </c>
@@ -4793,7 +4860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="44" s="110" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>33</v>
       </c>
@@ -4819,11 +4886,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="42"/>
-      <c r="F45" s="109"/>
-    </row>
-    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="45" s="110" spans="1:9">
+      <c r="D45" s="47" t="n"/>
+      <c r="F45" s="109" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="46" s="110" spans="1:9">
       <c r="A46" s="105" t="s">
         <v>76</v>
       </c>
@@ -4849,7 +4916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="47" s="110" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="48" s="110" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +4968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="49" s="110" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -4927,7 +4994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="50" s="110" spans="1:9">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
@@ -4953,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="51" s="110" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>22</v>
       </c>
@@ -4979,7 +5046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="52" s="110" spans="1:9">
       <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
@@ -5005,7 +5072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="53" s="110" spans="1:9">
       <c r="A53" s="7" t="s">
         <v>29</v>
       </c>
@@ -5031,7 +5098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="54" s="110" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -5057,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="17.25" r="55" s="110" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -5084,13 +5151,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
+++ b/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>B0.02</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>Friday 6th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday 9nd </t>
+  </si>
+  <si>
+    <t>Tuesday 10th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday 11 </t>
+  </si>
+  <si>
+    <t>Thursday 12</t>
+  </si>
+  <si>
+    <t>Friday 13</t>
   </si>
   <si>
     <t>9:00 - 10:00</t>
@@ -382,7 +397,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -427,6 +442,14 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <vertAlign val="superscript"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -462,6 +485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
@@ -475,12 +504,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
@@ -902,12 +925,12 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -931,6 +954,15 @@
     <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -940,10 +972,10 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -952,7 +984,7 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -961,13 +993,13 @@
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -991,10 +1023,10 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1006,10 +1038,10 @@
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1018,10 +1050,10 @@
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1030,16 +1062,16 @@
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1048,7 +1080,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1057,61 +1089,61 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="24" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" textRotation="45" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1126,16 +1158,16 @@
     <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="28" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="30" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1144,43 +1176,34 @@
     <xf applyAlignment="1" borderId="31" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="165" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1192,10 +1215,10 @@
     <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1204,31 +1227,31 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="7" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="7" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="7" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="7" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="39" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1243,12 +1266,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
     <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
-    <cellStyle builtinId="3" name="Comma" xfId="3"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="4" name="Currency" xfId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1607,35 +1630,35 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="C1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I17" activeCellId="1" pane="topLeft" sqref="L1:N4 I17"/>
+      <selection activeCell="N2" activeCellId="0" pane="topLeft" sqref="N2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="50" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="50" width="20.5714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
@@ -1743,616 +1766,616 @@
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>9</v>
+      <c r="P2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="n">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="19" t="n"/>
-      <c r="F3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="n">
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="22" t="n"/>
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="15" t="n">
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="17" t="n"/>
+      <c r="J3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="13" t="n">
+      <c r="M3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="19" t="n"/>
-      <c r="R3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="13" t="n">
+      <c r="P3" s="13" t="n"/>
+      <c r="Q3" s="22" t="n"/>
+      <c r="R3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="T3" s="10" t="n"/>
-      <c r="U3" s="14" t="n"/>
-      <c r="V3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="15" t="n">
+      <c r="T3" s="13" t="n"/>
+      <c r="U3" s="17" t="n"/>
+      <c r="V3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="18" t="n">
         <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="n">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="n">
+      <c r="D4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="n">
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="16" t="n">
+      <c r="H4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19" t="n">
         <v>45</v>
       </c>
-      <c r="J4" s="17" t="n"/>
-      <c r="K4" s="18" t="n"/>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="13" t="n">
+      <c r="J4" s="20" t="n"/>
+      <c r="K4" s="21" t="n"/>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="13" t="n">
+      <c r="P4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="13" t="n">
+      <c r="R4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="16" t="n">
+      <c r="T4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="19" t="n">
         <v>45</v>
       </c>
-      <c r="V4" s="17" t="n"/>
-      <c r="W4" s="18" t="n"/>
+      <c r="V4" s="20" t="n"/>
+      <c r="W4" s="21" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20" t="n"/>
+      <c r="C5" s="22" t="n"/>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="12" t="s">
+      <c r="K5" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="20" t="n"/>
+      <c r="O5" s="22" t="n"/>
+      <c r="P5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="19" t="n">
+        <v>27</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="28" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="22" t="n"/>
+      <c r="F7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="18" t="n">
+        <v>51</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="P7" s="13" t="n"/>
+      <c r="Q7" s="22" t="n"/>
+      <c r="R7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="33" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="G8" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="34" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="19" t="n">
+        <v>42</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="13" t="n">
+      <c r="P8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="33" t="n">
+        <v>42</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="34" t="n">
+        <v>42</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="35" t="n"/>
+      <c r="C9" s="36" t="n"/>
+      <c r="D9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="33" t="n">
+        <v>42</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>79</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J9" s="39" t="n"/>
+      <c r="K9" s="40" t="n"/>
+      <c r="M9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="35" t="n"/>
+      <c r="O9" s="36" t="n"/>
+      <c r="P9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="33" t="n">
+        <v>42</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="28" t="n">
+        <v>79</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="V9" s="39" t="n"/>
+      <c r="W9" s="40" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="42" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" s="39" t="n"/>
+      <c r="K10" s="40" t="n"/>
+      <c r="M10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16" t="n">
+      <c r="O10" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="42" t="n">
         <v>27</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="21" t="n">
-        <v>29</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="17" t="n"/>
-      <c r="O5" s="19" t="n"/>
-      <c r="P5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="13" t="n">
+      <c r="R10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="39" t="n"/>
+      <c r="W10" s="40" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="16" t="n">
+      <c r="C11" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="42" t="n">
         <v>27</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="21" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="25" t="n">
+      <c r="F11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="43" t="n"/>
+      <c r="J11" s="35" t="n"/>
+      <c r="K11" s="44" t="n"/>
+      <c r="L11" s="50" t="n"/>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="O11" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="42" t="n">
         <v>27</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>29</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="25" t="n">
+      <c r="R11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="25" t="n">
-        <v>27</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="21" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="19" t="n"/>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="15" t="n">
-        <v>51</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="P7" s="10" t="n"/>
-      <c r="Q7" s="19" t="n"/>
-      <c r="R7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="30" t="n">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="31" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="16" t="n">
-        <v>42</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="30" t="n">
-        <v>42</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="31" t="n">
-        <v>42</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="16" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="32" t="n"/>
-      <c r="C9" s="33" t="n"/>
-      <c r="D9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="30" t="n">
-        <v>42</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="25" t="n">
-        <v>79</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="J9" s="36" t="n"/>
-      <c r="K9" s="37" t="n"/>
-      <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="32" t="n"/>
-      <c r="O9" s="33" t="n"/>
-      <c r="P9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="30" t="n">
-        <v>42</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="25" t="n">
-        <v>79</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="V9" s="36" t="n"/>
-      <c r="W9" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="39" t="n">
-        <v>27</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="J10" s="36" t="n"/>
-      <c r="K10" s="37" t="n"/>
-      <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="39" t="n">
-        <v>27</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="V10" s="36" t="n"/>
-      <c r="W10" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="39" t="n">
-        <v>27</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="H11" s="10" t="n"/>
-      <c r="I11" s="40" t="n"/>
-      <c r="J11" s="32" t="n"/>
-      <c r="K11" s="41" t="n"/>
-      <c r="L11" s="47" t="n"/>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="39" t="n">
-        <v>27</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="T11" s="10" t="n"/>
-      <c r="U11" s="40" t="n"/>
-      <c r="V11" s="32" t="n"/>
-      <c r="W11" s="41" t="n"/>
+      <c r="T11" s="13" t="n"/>
+      <c r="U11" s="43" t="n"/>
+      <c r="V11" s="35" t="n"/>
+      <c r="W11" s="44" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="110" spans="1:23"/>
     <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44" t="n"/>
-      <c r="D13" s="44" t="n"/>
-      <c r="E13" s="44" t="n"/>
-      <c r="F13" s="44" t="n"/>
-      <c r="G13" s="44" t="n"/>
-      <c r="H13" s="44" t="n"/>
-      <c r="I13" s="44" t="n"/>
-      <c r="J13" s="44" t="n"/>
-      <c r="N13" s="45" t="n"/>
-      <c r="O13" s="45" t="n"/>
-      <c r="P13" s="45" t="n"/>
-      <c r="Q13" s="45" t="n"/>
-      <c r="R13" s="45" t="n"/>
-      <c r="S13" s="45" t="n"/>
-      <c r="T13" s="45" t="n"/>
-      <c r="U13" s="45" t="n"/>
-      <c r="V13" s="45" t="n"/>
+      <c r="B13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="47" t="n"/>
+      <c r="D13" s="47" t="n"/>
+      <c r="E13" s="47" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="47" t="n"/>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="47" t="n"/>
+      <c r="J13" s="47" t="n"/>
+      <c r="N13" s="48" t="n"/>
+      <c r="O13" s="48" t="n"/>
+      <c r="P13" s="48" t="n"/>
+      <c r="Q13" s="48" t="n"/>
+      <c r="R13" s="48" t="n"/>
+      <c r="S13" s="48" t="n"/>
+      <c r="T13" s="48" t="n"/>
+      <c r="U13" s="48" t="n"/>
+      <c r="V13" s="48" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47" t="n"/>
-      <c r="D14" s="48" t="n"/>
-      <c r="E14" s="48" t="n"/>
-      <c r="F14" s="48" t="n"/>
-      <c r="G14" s="48" t="n"/>
-      <c r="H14" s="48" t="n"/>
-      <c r="I14" s="48" t="n"/>
-      <c r="J14" s="48" t="n"/>
-      <c r="K14" s="48" t="n"/>
-      <c r="N14" s="48" t="n"/>
-      <c r="O14" s="48" t="n"/>
-      <c r="P14" s="48" t="n"/>
-      <c r="Q14" s="48" t="n"/>
-      <c r="R14" s="48" t="n"/>
-      <c r="S14" s="48" t="n"/>
-      <c r="T14" s="48" t="n"/>
-      <c r="U14" s="48" t="n"/>
-      <c r="V14" s="48" t="n"/>
-      <c r="W14" s="48" t="n"/>
+      <c r="B14" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="50" t="n"/>
+      <c r="D14" s="51" t="n"/>
+      <c r="E14" s="51" t="n"/>
+      <c r="F14" s="51" t="n"/>
+      <c r="G14" s="51" t="n"/>
+      <c r="H14" s="51" t="n"/>
+      <c r="I14" s="51" t="n"/>
+      <c r="J14" s="51" t="n"/>
+      <c r="K14" s="51" t="n"/>
+      <c r="N14" s="51" t="n"/>
+      <c r="O14" s="51" t="n"/>
+      <c r="P14" s="51" t="n"/>
+      <c r="Q14" s="51" t="n"/>
+      <c r="R14" s="51" t="n"/>
+      <c r="S14" s="51" t="n"/>
+      <c r="T14" s="51" t="n"/>
+      <c r="U14" s="51" t="n"/>
+      <c r="V14" s="51" t="n"/>
+      <c r="W14" s="51" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="110" spans="1:23"/>
     <row customHeight="1" ht="13.8" r="17" s="110" spans="1:23"/>
@@ -2372,712 +2395,712 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H5" activeCellId="1" pane="topLeft" sqref="L1:N4 H5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="C1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="N2" activeCellId="0" pane="topLeft" sqref="N2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="50" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="50" width="20.5714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
-      <c r="A1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="50" t="s">
+      <c r="M1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
-      <c r="A2" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="53" t="s">
+      <c r="M2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="54" t="s">
-        <v>9</v>
+      <c r="P2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" s="59" t="n"/>
+      <c r="E3" s="60" t="n"/>
+      <c r="F3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="62" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="P3" s="59" t="n"/>
+      <c r="Q3" s="60" t="n"/>
+      <c r="R3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="62" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="59" t="n"/>
+      <c r="I4" s="67" t="n"/>
+      <c r="J4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="62" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" s="63" t="n"/>
+      <c r="Q4" s="64" t="n"/>
+      <c r="R4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="59" t="n"/>
+      <c r="U4" s="67" t="n"/>
+      <c r="V4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="62" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="63" t="n"/>
+      <c r="I5" s="68" t="n"/>
+      <c r="J5" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="71" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="63" t="n"/>
+      <c r="U5" s="68" t="n"/>
+      <c r="V5" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="64" t="n"/>
+      <c r="F6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>56</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="71" t="n">
+        <v>45</v>
+      </c>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="64" t="n"/>
+      <c r="R6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="29" t="n">
+        <v>56</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="22" t="n"/>
+      <c r="D7" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="20" t="n"/>
+      <c r="K7" s="17" t="n"/>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="20" t="n"/>
+      <c r="O7" s="22" t="n"/>
+      <c r="P7" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="20" t="n"/>
+      <c r="W7" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="74" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" s="75" t="n"/>
+      <c r="E8" s="76" t="n"/>
+      <c r="F8" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="80" t="n">
+        <v>65</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="74" t="n">
+        <v>33</v>
+      </c>
+      <c r="P8" s="75" t="n"/>
+      <c r="Q8" s="76" t="n"/>
+      <c r="R8" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="80" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="74" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" s="81" t="n"/>
+      <c r="E9" s="82" t="n"/>
+      <c r="F9" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="80" t="n">
+        <v>65</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="74" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" s="81" t="n"/>
+      <c r="Q9" s="82" t="n"/>
+      <c r="R9" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="80" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="68" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" s="56" t="n"/>
-      <c r="E3" s="57" t="n"/>
-      <c r="F3" s="27" t="s">
+      <c r="B10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="71" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="83" t="n"/>
+      <c r="E10" s="84" t="n"/>
+      <c r="F10" s="83" t="n"/>
+      <c r="G10" s="84" t="n"/>
+      <c r="H10" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39" t="n"/>
+      <c r="K10" s="40" t="n"/>
+      <c r="M10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="71" t="n">
+        <v>35</v>
+      </c>
+      <c r="P10" s="83" t="n"/>
+      <c r="Q10" s="84" t="n"/>
+      <c r="R10" s="83" t="n"/>
+      <c r="S10" s="84" t="n"/>
+      <c r="T10" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="39" t="n"/>
+      <c r="W10" s="40" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
+      <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="B11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="71" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="86" t="n"/>
+      <c r="E11" s="82" t="n"/>
+      <c r="F11" s="86" t="n"/>
+      <c r="G11" s="82" t="n"/>
+      <c r="H11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35" t="n"/>
+      <c r="K11" s="44" t="n"/>
+      <c r="L11" s="50" t="n"/>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="71" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="86" t="n"/>
+      <c r="Q11" s="82" t="n"/>
+      <c r="R11" s="86" t="n"/>
+      <c r="S11" s="82" t="n"/>
+      <c r="T11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="35" t="n"/>
+      <c r="W11" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
+      <c r="B13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="15" t="n">
-        <v>42</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="59" t="n">
-        <v>45</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="68" t="n">
-        <v>53</v>
-      </c>
-      <c r="P3" s="56" t="n"/>
-      <c r="Q3" s="57" t="n"/>
-      <c r="R3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="15" t="n">
-        <v>42</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="59" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="68" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" s="60" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="62" t="s">
+      <c r="C13" s="47" t="n"/>
+      <c r="D13" s="47" t="n"/>
+      <c r="E13" s="47" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="47" t="n"/>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="47" t="n"/>
+      <c r="J13" s="47" t="n"/>
+      <c r="N13" s="48" t="n"/>
+      <c r="O13" s="48" t="n"/>
+      <c r="P13" s="48" t="n"/>
+      <c r="Q13" s="48" t="n"/>
+      <c r="R13" s="48" t="n"/>
+      <c r="S13" s="48" t="n"/>
+      <c r="T13" s="48" t="n"/>
+      <c r="U13" s="48" t="n"/>
+      <c r="V13" s="48" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
+      <c r="B14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="56" t="n"/>
-      <c r="I4" s="64" t="n"/>
-      <c r="J4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="59" t="n">
-        <v>45</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="68" t="n">
-        <v>53</v>
-      </c>
-      <c r="P4" s="60" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="56" t="n"/>
-      <c r="U4" s="64" t="n"/>
-      <c r="V4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="59" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="68" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="60" t="n"/>
-      <c r="I5" s="65" t="n"/>
-      <c r="J5" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="68" t="n">
-        <v>45</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="60" t="n"/>
-      <c r="U5" s="65" t="n"/>
-      <c r="V5" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="68" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" s="60" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="68" t="n">
-        <v>73</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="68" t="n">
-        <v>45</v>
-      </c>
-      <c r="P6" s="60" t="n"/>
-      <c r="Q6" s="61" t="n"/>
-      <c r="R6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="68" t="n">
-        <v>73</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="V6" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="n"/>
-      <c r="C7" s="19" t="n"/>
-      <c r="D7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="68" t="n">
-        <v>73</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="17" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="17" t="n"/>
-      <c r="O7" s="19" t="n"/>
-      <c r="P7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="68" t="n">
-        <v>73</v>
-      </c>
-      <c r="T7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="17" t="n"/>
-      <c r="W7" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="71" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" s="72" t="n"/>
-      <c r="E8" s="73" t="n"/>
-      <c r="F8" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="77" t="n">
-        <v>65</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="71" t="n">
-        <v>33</v>
-      </c>
-      <c r="P8" s="72" t="n"/>
-      <c r="Q8" s="73" t="n"/>
-      <c r="R8" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="77" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="71" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" s="78" t="n"/>
-      <c r="E9" s="79" t="n"/>
-      <c r="F9" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="77" t="n">
-        <v>65</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="71" t="n">
-        <v>33</v>
-      </c>
-      <c r="P9" s="78" t="n"/>
-      <c r="Q9" s="79" t="n"/>
-      <c r="R9" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="77" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="68" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="80" t="n"/>
-      <c r="E10" s="81" t="n"/>
-      <c r="F10" s="80" t="n"/>
-      <c r="G10" s="81" t="n"/>
-      <c r="H10" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36" t="n"/>
-      <c r="K10" s="37" t="n"/>
-      <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="68" t="n">
-        <v>35</v>
-      </c>
-      <c r="P10" s="80" t="n"/>
-      <c r="Q10" s="81" t="n"/>
-      <c r="R10" s="80" t="n"/>
-      <c r="S10" s="81" t="n"/>
-      <c r="T10" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="36" t="n"/>
-      <c r="W10" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="68" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="83" t="n"/>
-      <c r="E11" s="79" t="n"/>
-      <c r="F11" s="83" t="n"/>
-      <c r="G11" s="79" t="n"/>
-      <c r="H11" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32" t="n"/>
-      <c r="K11" s="41" t="n"/>
-      <c r="L11" s="47" t="n"/>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="68" t="n">
-        <v>35</v>
-      </c>
-      <c r="P11" s="83" t="n"/>
-      <c r="Q11" s="79" t="n"/>
-      <c r="R11" s="83" t="n"/>
-      <c r="S11" s="79" t="n"/>
-      <c r="T11" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="32" t="n"/>
-      <c r="W11" s="41" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44" t="n"/>
-      <c r="D13" s="44" t="n"/>
-      <c r="E13" s="44" t="n"/>
-      <c r="F13" s="44" t="n"/>
-      <c r="G13" s="44" t="n"/>
-      <c r="H13" s="44" t="n"/>
-      <c r="I13" s="44" t="n"/>
-      <c r="J13" s="44" t="n"/>
-      <c r="N13" s="45" t="n"/>
-      <c r="O13" s="45" t="n"/>
-      <c r="P13" s="45" t="n"/>
-      <c r="Q13" s="45" t="n"/>
-      <c r="R13" s="45" t="n"/>
-      <c r="S13" s="45" t="n"/>
-      <c r="T13" s="45" t="n"/>
-      <c r="U13" s="45" t="n"/>
-      <c r="V13" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47" t="n"/>
-      <c r="D14" s="48" t="n"/>
-      <c r="E14" s="48" t="n"/>
-      <c r="F14" s="48" t="n"/>
-      <c r="G14" s="48" t="n"/>
-      <c r="H14" s="48" t="n"/>
-      <c r="I14" s="48" t="n"/>
-      <c r="J14" s="48" t="n"/>
-      <c r="K14" s="48" t="n"/>
-      <c r="N14" s="48" t="n"/>
-      <c r="O14" s="48" t="n"/>
-      <c r="P14" s="48" t="n"/>
-      <c r="Q14" s="48" t="n"/>
-      <c r="R14" s="48" t="n"/>
-      <c r="S14" s="48" t="n"/>
-      <c r="T14" s="48" t="n"/>
-      <c r="U14" s="48" t="n"/>
-      <c r="V14" s="48" t="n"/>
-      <c r="W14" s="48" t="n"/>
+      <c r="C14" s="50" t="n"/>
+      <c r="D14" s="51" t="n"/>
+      <c r="E14" s="51" t="n"/>
+      <c r="F14" s="51" t="n"/>
+      <c r="G14" s="51" t="n"/>
+      <c r="H14" s="51" t="n"/>
+      <c r="I14" s="51" t="n"/>
+      <c r="J14" s="51" t="n"/>
+      <c r="K14" s="51" t="n"/>
+      <c r="N14" s="51" t="n"/>
+      <c r="O14" s="51" t="n"/>
+      <c r="P14" s="51" t="n"/>
+      <c r="Q14" s="51" t="n"/>
+      <c r="R14" s="51" t="n"/>
+      <c r="S14" s="51" t="n"/>
+      <c r="T14" s="51" t="n"/>
+      <c r="U14" s="51" t="n"/>
+      <c r="V14" s="51" t="n"/>
+      <c r="W14" s="51" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -3095,126 +3118,126 @@
   </sheetPr>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W3" activeCellId="1" pane="topLeft" sqref="L1:N4 W3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="K1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="N2" activeCellId="0" pane="topLeft" sqref="N2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="50" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="50" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="50" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="50" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="50" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="50" width="20.5714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
-      <c r="A1" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="85" t="s">
+      <c r="A1" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="85" t="s">
+      <c r="C1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="86" t="s">
-        <v>48</v>
+      <c r="O1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="89" t="s">
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
-      <c r="A2" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="90" t="s">
@@ -3229,93 +3252,93 @@
       <c r="K2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="88" t="s">
+      <c r="M2" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="89" t="s">
-        <v>9</v>
+      <c r="P2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
+      <c r="A3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="92" t="n">
         <v>79</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="92" t="n">
         <v>143</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G3" s="92" t="n">
         <v>79</v>
       </c>
       <c r="H3" s="91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I3" s="92" t="n">
         <v>143</v>
       </c>
       <c r="J3" s="94" t="n"/>
       <c r="K3" s="95" t="n"/>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
+      <c r="M3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="N3" s="91" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O3" s="92" t="n">
         <v>79</v>
       </c>
       <c r="P3" s="93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="92" t="n">
         <v>143</v>
       </c>
       <c r="R3" s="93" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S3" s="92" t="n">
         <v>79</v>
       </c>
       <c r="T3" s="91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U3" s="92" t="n">
         <v>143</v>
@@ -3324,17 +3347,17 @@
       <c r="W3" s="95" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
+      <c r="A4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="97" t="n">
         <v>49</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="92" t="n">
         <v>112</v>
@@ -3342,24 +3365,24 @@
       <c r="F4" s="94" t="n"/>
       <c r="G4" s="95" t="n"/>
       <c r="H4" s="91" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="92" t="n">
         <v>56</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K4" s="92" t="n">
         <v>96</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="N4" s="98" t="n"/>
       <c r="O4" s="99" t="n"/>
       <c r="P4" s="91" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="92" t="n">
         <v>112</v>
@@ -3367,135 +3390,135 @@
       <c r="R4" s="94" t="n"/>
       <c r="S4" s="95" t="n"/>
       <c r="T4" s="91" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U4" s="92" t="n">
         <v>56</v>
       </c>
       <c r="V4" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="W4" s="92" t="n">
         <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
+      <c r="A5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="97" t="n">
         <v>49</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="92" t="n">
         <v>107</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I5" s="92" t="n">
         <v>139</v>
       </c>
       <c r="J5" s="91" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K5" s="92" t="n">
         <v>84</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
+      <c r="M5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="N5" s="100" t="n"/>
       <c r="O5" s="101" t="n"/>
       <c r="P5" s="91" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="92" t="n">
         <v>107</v>
       </c>
       <c r="R5" s="91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="T5" s="91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U5" s="92" t="n">
         <v>139</v>
       </c>
       <c r="V5" s="91" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W5" s="92" t="n">
         <v>84</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
+      <c r="A6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" s="92" t="n">
         <v>139</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G6" s="92" t="n">
         <v>74</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I6" s="92" t="n">
         <v>107</v>
       </c>
       <c r="J6" s="94" t="n"/>
       <c r="K6" s="95" t="n"/>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
+      <c r="M6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="N6" s="91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="92" t="n">
         <v>139</v>
       </c>
       <c r="R6" s="91" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="S6" s="92" t="n">
         <v>74</v>
       </c>
       <c r="T6" s="91" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="U6" s="92" t="n">
         <v>107</v>
@@ -3504,17 +3527,17 @@
       <c r="W6" s="95" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
+      <c r="A7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E7" s="92" t="n">
         <v>103</v>
@@ -3522,24 +3545,24 @@
       <c r="F7" s="94" t="n"/>
       <c r="G7" s="95" t="n"/>
       <c r="H7" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I7" s="92" t="n">
         <v>113</v>
       </c>
       <c r="J7" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K7" s="92" t="n">
         <v>103</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="N7" s="94" t="n"/>
       <c r="O7" s="95" t="n"/>
       <c r="P7" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="92" t="n">
         <v>103</v>
@@ -3547,30 +3570,30 @@
       <c r="R7" s="94" t="n"/>
       <c r="S7" s="95" t="n"/>
       <c r="T7" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="U7" s="92" t="n">
         <v>113</v>
       </c>
       <c r="V7" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="W7" s="92" t="n">
         <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C8" s="92" t="n">
         <v>66</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E8" s="92" t="n">
         <v>0</v>
@@ -3578,28 +3601,28 @@
       <c r="F8" s="94" t="n"/>
       <c r="G8" s="95" t="n"/>
       <c r="H8" s="91" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I8" s="92" t="n">
         <v>83</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" s="92" t="n">
         <v>113</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>27</v>
+      <c r="M8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="N8" s="91" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O8" s="92" t="n">
         <v>66</v>
       </c>
       <c r="P8" s="91" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="92" t="n">
         <v>0</v>
@@ -3607,36 +3630,36 @@
       <c r="R8" s="94" t="n"/>
       <c r="S8" s="95" t="n"/>
       <c r="T8" s="91" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="U8" s="92" t="n">
         <v>83</v>
       </c>
       <c r="V8" s="91" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="W8" s="92" t="n">
         <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
+      <c r="A9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C9" s="92" t="n">
         <v>19</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E9" s="92" t="n">
         <v>108</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G9" s="92" t="n">
         <v>84</v>
@@ -3644,28 +3667,28 @@
       <c r="H9" s="94" t="n"/>
       <c r="I9" s="95" t="n"/>
       <c r="J9" s="91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K9" s="92" t="n">
         <v>38</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>29</v>
+      <c r="M9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="N9" s="91" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O9" s="92" t="n">
         <v>19</v>
       </c>
       <c r="P9" s="91" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="92" t="n">
         <v>108</v>
       </c>
       <c r="R9" s="91" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S9" s="92" t="n">
         <v>84</v>
@@ -3673,15 +3696,15 @@
       <c r="T9" s="94" t="n"/>
       <c r="U9" s="95" t="n"/>
       <c r="V9" s="91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W9" s="92" t="n">
         <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
+      <c r="A10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="94" t="n"/>
       <c r="C10" s="95" t="n"/>
@@ -3690,15 +3713,15 @@
       <c r="F10" s="94" t="n"/>
       <c r="G10" s="95" t="n"/>
       <c r="H10" s="91" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I10" s="92" t="n">
         <v>108</v>
       </c>
       <c r="J10" s="94" t="n"/>
       <c r="K10" s="95" t="n"/>
-      <c r="M10" s="7" t="s">
-        <v>32</v>
+      <c r="M10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="N10" s="94" t="n"/>
       <c r="O10" s="95" t="n"/>
@@ -3707,7 +3730,7 @@
       <c r="R10" s="94" t="n"/>
       <c r="S10" s="95" t="n"/>
       <c r="T10" s="91" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="U10" s="92" t="n">
         <v>108</v>
@@ -3716,8 +3739,8 @@
       <c r="W10" s="95" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
+      <c r="A11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="94" t="n"/>
       <c r="C11" s="95" t="n"/>
@@ -3729,9 +3752,9 @@
       <c r="I11" s="95" t="n"/>
       <c r="J11" s="94" t="n"/>
       <c r="K11" s="95" t="n"/>
-      <c r="L11" s="47" t="n"/>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
+      <c r="L11" s="50" t="n"/>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="N11" s="94" t="n"/>
       <c r="O11" s="95" t="n"/>
@@ -3745,50 +3768,50 @@
       <c r="W11" s="95" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44" t="n"/>
-      <c r="D13" s="44" t="n"/>
-      <c r="E13" s="44" t="n"/>
-      <c r="F13" s="44" t="n"/>
-      <c r="G13" s="44" t="n"/>
-      <c r="H13" s="44" t="n"/>
-      <c r="I13" s="44" t="n"/>
-      <c r="J13" s="44" t="n"/>
-      <c r="N13" s="45" t="n"/>
-      <c r="O13" s="45" t="n"/>
-      <c r="P13" s="45" t="n"/>
-      <c r="Q13" s="45" t="n"/>
-      <c r="R13" s="45" t="n"/>
-      <c r="S13" s="45" t="n"/>
-      <c r="T13" s="45" t="n"/>
-      <c r="U13" s="45" t="n"/>
-      <c r="V13" s="45" t="n"/>
+      <c r="B13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="47" t="n"/>
+      <c r="D13" s="47" t="n"/>
+      <c r="E13" s="47" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="47" t="n"/>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="47" t="n"/>
+      <c r="J13" s="47" t="n"/>
+      <c r="N13" s="48" t="n"/>
+      <c r="O13" s="48" t="n"/>
+      <c r="P13" s="48" t="n"/>
+      <c r="Q13" s="48" t="n"/>
+      <c r="R13" s="48" t="n"/>
+      <c r="S13" s="48" t="n"/>
+      <c r="T13" s="48" t="n"/>
+      <c r="U13" s="48" t="n"/>
+      <c r="V13" s="48" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47" t="n"/>
-      <c r="D14" s="48" t="n"/>
-      <c r="E14" s="48" t="n"/>
-      <c r="F14" s="48" t="n"/>
-      <c r="G14" s="48" t="n"/>
-      <c r="H14" s="48" t="n"/>
-      <c r="I14" s="48" t="n"/>
-      <c r="J14" s="48" t="n"/>
-      <c r="K14" s="48" t="n"/>
-      <c r="N14" s="48" t="n"/>
-      <c r="O14" s="48" t="n"/>
-      <c r="P14" s="48" t="n"/>
-      <c r="Q14" s="48" t="n"/>
-      <c r="R14" s="48" t="n"/>
-      <c r="S14" s="48" t="n"/>
-      <c r="T14" s="48" t="n"/>
-      <c r="U14" s="48" t="n"/>
-      <c r="V14" s="48" t="n"/>
-      <c r="W14" s="48" t="n"/>
+      <c r="B14" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="50" t="n"/>
+      <c r="D14" s="51" t="n"/>
+      <c r="E14" s="51" t="n"/>
+      <c r="F14" s="51" t="n"/>
+      <c r="G14" s="51" t="n"/>
+      <c r="H14" s="51" t="n"/>
+      <c r="I14" s="51" t="n"/>
+      <c r="J14" s="51" t="n"/>
+      <c r="K14" s="51" t="n"/>
+      <c r="N14" s="51" t="n"/>
+      <c r="O14" s="51" t="n"/>
+      <c r="P14" s="51" t="n"/>
+      <c r="Q14" s="51" t="n"/>
+      <c r="R14" s="51" t="n"/>
+      <c r="S14" s="51" t="n"/>
+      <c r="T14" s="51" t="n"/>
+      <c r="U14" s="51" t="n"/>
+      <c r="V14" s="51" t="n"/>
+      <c r="W14" s="51" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -3806,294 +3829,294 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="L22" activeCellId="1" pane="topLeft" sqref="L1:N4 L22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A6" view="normal" windowProtection="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="L22" activeCellId="1" pane="topLeft" sqref="N2:W2 L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="47" width="14.5714285714286"/>
-    <col customWidth="1" max="5" min="2" style="47" width="9.70918367346939"/>
-    <col customWidth="1" max="6" min="6" style="47" width="14.5714285714286"/>
-    <col customWidth="1" max="9" min="7" style="47" width="8.29081632653061"/>
-    <col customWidth="1" max="1025" min="10" style="47" width="8.72959183673469"/>
+    <col customWidth="1" max="1" min="1" style="50" width="14.5714285714286"/>
+    <col customWidth="1" max="5" min="2" style="50" width="9.70918367346939"/>
+    <col customWidth="1" max="6" min="6" style="50" width="14.5714285714286"/>
+    <col customWidth="1" max="9" min="7" style="50" width="8.29081632653061"/>
+    <col customWidth="1" max="1025" min="10" style="50" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="17.25" r="1" s="110" spans="1:9">
       <c r="A1" s="103" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" s="103" t="n"/>
       <c r="D1" s="103" t="n"/>
       <c r="F1" s="104" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="103" t="n"/>
       <c r="I1" s="103" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="2" s="110" spans="1:9">
       <c r="A2" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="3" s="110" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="10" t="n">
         <v>79</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="10" t="n">
         <v>79</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="4" s="110" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="n">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="10" t="n">
         <v>49</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="5" s="110" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="10" t="n">
         <v>49</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="6" s="110" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="10" t="n">
         <v>98</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="10" t="n">
         <v>98</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="7" s="110" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="n">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="8" s="110" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7" t="n">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="10" t="n">
         <v>66</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="10" t="n">
         <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="9" s="110" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="10" t="n">
         <v>19</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="10" t="n">
         <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="10" s="110" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7" t="n">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="11" s="110" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="n">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4102,261 +4125,261 @@
     </row>
     <row customHeight="1" ht="17.25" r="13" s="110" spans="1:9">
       <c r="A13" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="14" s="110" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="n">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="n">
         <v>143</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="n">
         <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="15" s="110" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="n">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="n">
         <v>112</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
+      <c r="H15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="n">
         <v>112</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="16" s="110" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="n">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="10" t="n">
         <v>107</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="10" t="n">
         <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="17" s="110" spans="1:9">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="n">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="n">
         <v>139</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="n">
         <v>139</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="18" s="110" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="n">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10" t="n">
         <v>103</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" s="10" t="n">
         <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="19" s="110" spans="1:9">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="20" s="110" spans="1:9">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="21" s="110" spans="1:9">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="107" t="s">
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="G19" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="20" s="110" spans="1:9">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>108</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="21" s="110" spans="1:9">
-      <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7" t="n">
+      <c r="H21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="22" s="110" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="7" t="n">
+      <c r="C22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="22" s="110" spans="1:9">
-      <c r="A22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+      <c r="H22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4365,261 +4388,261 @@
     </row>
     <row customHeight="1" ht="17.25" r="24" s="110" spans="1:9">
       <c r="A24" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F24" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="25" s="110" spans="1:9">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="F25" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="26" s="110" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="27" s="110" spans="1:9">
+      <c r="A27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="F27" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="28" s="110" spans="1:9">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="25" s="110" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7" t="n">
+      <c r="D28" s="10" t="n">
+        <v>74</v>
+      </c>
+      <c r="F28" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="29" s="110" spans="1:9">
+      <c r="A29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="30" s="110" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="31" s="110" spans="1:9">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>79</v>
       </c>
-      <c r="F25" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="n">
+      <c r="C31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="F31" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="10" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="26" s="110" spans="1:9">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="27" s="110" spans="1:9">
-      <c r="A27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="7" t="n">
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="32" s="110" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="F27" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="7" t="n">
+      <c r="C32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="28" s="110" spans="1:9">
-      <c r="A28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>73</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>74</v>
-      </c>
-      <c r="F28" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>73</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="29" s="110" spans="1:9">
-      <c r="A29" s="7" t="s">
+      <c r="H32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="33" s="110" spans="1:9">
+      <c r="A33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="107" t="s">
+      <c r="C33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="G29" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>73</v>
-      </c>
-      <c r="I29" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="30" s="110" spans="1:9">
-      <c r="A30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="31" s="110" spans="1:9">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="n">
-        <v>79</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>84</v>
-      </c>
-      <c r="F31" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>79</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="32" s="110" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="33" s="110" spans="1:9">
-      <c r="A33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="n">
+      <c r="H33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4628,525 +4651,525 @@
     </row>
     <row customHeight="1" ht="17.25" r="35" s="110" spans="1:9">
       <c r="A35" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F35" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="36" s="110" spans="1:9">
-      <c r="A36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7" t="n">
+      <c r="A36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="10" t="n">
         <v>143</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="10" t="n">
         <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="37" s="110" spans="1:9">
-      <c r="A37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7" t="n">
+      <c r="A37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7" t="n">
+      <c r="C37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="n">
         <v>56</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G37" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="n">
+      <c r="H37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="n">
         <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="38" s="110" spans="1:9">
-      <c r="A38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7" t="n">
+      <c r="A38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7" t="n">
+      <c r="C38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="n">
         <v>139</v>
       </c>
       <c r="F38" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G38" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="n">
+      <c r="H38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10" t="n">
         <v>139</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="39" s="110" spans="1:9">
-      <c r="A39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="7" t="n">
+      <c r="A39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="10" t="n">
         <v>107</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G39" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="10" t="n">
         <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="40" s="110" spans="1:9">
-      <c r="A40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="7" t="n">
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" s="10" t="n">
         <v>113</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G40" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I40" s="10" t="n">
         <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="41" s="110" spans="1:9">
-      <c r="A41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="7" t="n">
+      <c r="A41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="C41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7" t="n">
+      <c r="C41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10" t="n">
         <v>83</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G41" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="n">
+      <c r="H41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="n">
         <v>83</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="42" s="110" spans="1:9">
-      <c r="A42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="7" t="n">
+      <c r="A42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="C42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7" t="n">
+      <c r="C42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="G42" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
+      <c r="H42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="43" s="110" spans="1:9">
-      <c r="A43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7" t="n">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10" t="n">
         <v>108</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="G43" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
+      <c r="H43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="n">
         <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="44" s="110" spans="1:9">
-      <c r="A44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7" t="n">
+      <c r="A44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="45" s="110" spans="1:9">
-      <c r="D45" s="47" t="n"/>
+      <c r="D45" s="50" t="n"/>
       <c r="F45" s="109" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="46" s="110" spans="1:9">
       <c r="A46" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F46" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="47" s="110" spans="1:9">
-      <c r="A47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="7" t="n">
+      <c r="A47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="48" s="110" spans="1:9">
-      <c r="A48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7" t="n">
+      <c r="A48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="n">
         <v>96</v>
       </c>
       <c r="F48" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="10" t="n">
         <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="49" s="110" spans="1:9">
-      <c r="A49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="7" t="n">
+      <c r="A49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="C49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7" t="n">
+      <c r="C49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10" t="n">
         <v>84</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G49" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7" t="n">
+      <c r="H49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10" t="n">
         <v>84</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="50" s="110" spans="1:9">
-      <c r="A50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7" t="n">
+      <c r="A50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G50" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="n">
+      <c r="H50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="51" s="110" spans="1:9">
-      <c r="A51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="7" t="n">
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="C51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7" t="n">
+      <c r="C51" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10" t="n">
         <v>103</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G51" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="H51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7" t="n">
+      <c r="H51" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10" t="n">
         <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="52" s="110" spans="1:9">
-      <c r="A52" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="7" t="n">
+      <c r="A52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="10" t="n">
         <v>113</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G52" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="H52" s="7" t="n">
+      <c r="H52" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="I52" s="7" t="n">
+      <c r="I52" s="10" t="n">
         <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="53" s="110" spans="1:9">
-      <c r="A53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7" t="n">
+      <c r="A53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10" t="n">
         <v>38</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="G53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="I53" s="7" t="n">
+      <c r="I53" s="10" t="n">
         <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="54" s="110" spans="1:9">
-      <c r="A54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="7" t="n">
+      <c r="A54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="55" s="110" spans="1:9">
-      <c r="A55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7" t="n">
+      <c r="A55" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
+++ b/data_cleaning/1.test_data/B0.02 B0.03 B0.04 Timetable.xlsx
@@ -928,9 +928,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1266,12 +1266,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="3" name="Comma" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="4" name="Currency" xfId="4"/>
-    <cellStyle builtinId="0" name="Normal" xfId="5"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="3" name="Comma" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
